--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -489,7 +489,7 @@
         <v>278</v>
       </c>
       <c r="E2">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="F2">
         <v>41.47722766846882</v>
@@ -498,31 +498,31 @@
         <v>1.15</v>
       </c>
       <c r="H2">
-        <v>14</v>
+        <v>14.7</v>
       </c>
       <c r="I2">
-        <v>264</v>
+        <v>263.3</v>
       </c>
       <c r="J2">
-        <v>14</v>
+        <v>14.7</v>
       </c>
       <c r="K2">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L2">
-        <v>264</v>
+        <v>263.3</v>
       </c>
       <c r="M2">
-        <v>145.2</v>
+        <v>131.6</v>
       </c>
       <c r="N2">
-        <v>118.8</v>
+        <v>131.65</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>145.2</v>
+        <v>131.6</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -539,7 +539,7 @@
         <v>71.09999999999999</v>
       </c>
       <c r="E3">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F3">
         <v>41.47722766846882</v>
@@ -548,31 +548,31 @@
         <v>1.15</v>
       </c>
       <c r="H3">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="I3">
-        <v>58.39999999999999</v>
+        <v>57.89999999999999</v>
       </c>
       <c r="J3">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="K3">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L3">
-        <v>58.39999999999999</v>
+        <v>57.89999999999999</v>
       </c>
       <c r="M3">
-        <v>97.5</v>
+        <v>94.8</v>
       </c>
       <c r="N3">
-        <v>79.73999999999998</v>
+        <v>94.77500000000001</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>97.5</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -607,22 +607,22 @@
         <v>22.3</v>
       </c>
       <c r="K4">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L4">
         <v>160.7</v>
       </c>
       <c r="M4">
-        <v>132.2</v>
+        <v>127.7</v>
       </c>
       <c r="N4">
-        <v>108.198</v>
+        <v>127.7375</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>132.2</v>
+        <v>127.7</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -639,7 +639,7 @@
         <v>221.8</v>
       </c>
       <c r="E5">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="F5">
         <v>41.47722766846882</v>
@@ -648,31 +648,31 @@
         <v>1.15</v>
       </c>
       <c r="H5">
-        <v>42.2</v>
+        <v>41.4</v>
       </c>
       <c r="I5">
-        <v>179.6</v>
+        <v>180.4</v>
       </c>
       <c r="J5">
-        <v>42.2</v>
+        <v>41.4</v>
       </c>
       <c r="K5">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L5">
-        <v>179.6</v>
+        <v>180.4</v>
       </c>
       <c r="M5">
-        <v>158.3</v>
+        <v>154.1</v>
       </c>
       <c r="N5">
-        <v>129.5091</v>
+        <v>154.06875</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>158.3</v>
+        <v>154.1</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -689,7 +689,7 @@
         <v>147</v>
       </c>
       <c r="E6">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="F6">
         <v>41.47722766846882</v>
@@ -698,31 +698,31 @@
         <v>1.15</v>
       </c>
       <c r="H6">
-        <v>75.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="I6">
-        <v>71.90000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="J6">
-        <v>75.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K6">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L6">
-        <v>71.90000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="M6">
-        <v>110.8</v>
+        <v>114.5</v>
       </c>
       <c r="N6">
-        <v>90.63409499999999</v>
+        <v>114.484375</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>110.8</v>
+        <v>114.5</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -739,7 +739,7 @@
         <v>110.1</v>
       </c>
       <c r="E7">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="F7">
         <v>41.47722766846882</v>
@@ -748,31 +748,31 @@
         <v>1.15</v>
       </c>
       <c r="H7">
-        <v>99.2</v>
+        <v>95.3</v>
       </c>
       <c r="I7">
-        <v>10.89999999999999</v>
+        <v>14.8</v>
       </c>
       <c r="J7">
-        <v>99.2</v>
+        <v>95.3</v>
       </c>
       <c r="K7">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L7">
-        <v>10.89999999999999</v>
+        <v>14.8</v>
       </c>
       <c r="M7">
-        <v>55.8</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="N7">
-        <v>45.69034274999999</v>
+        <v>64.64218750000001</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>55.8</v>
+        <v>64.59999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -789,7 +789,7 @@
         <v>8.5</v>
       </c>
       <c r="E8">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="F8">
         <v>41.47722766846882</v>
@@ -798,31 +798,31 @@
         <v>1.15</v>
       </c>
       <c r="H8">
-        <v>115.5</v>
+        <v>111</v>
       </c>
       <c r="I8">
-        <v>-107</v>
+        <v>-102.5</v>
       </c>
       <c r="J8">
-        <v>84.99878323093483</v>
+        <v>85.47602453942953</v>
       </c>
       <c r="K8">
-        <v>73.50121676906517</v>
+        <v>93.02397546057047</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>25.1</v>
+        <v>32.3</v>
       </c>
       <c r="N8">
-        <v>20.56065423749999</v>
+        <v>32.32109375</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>25.1</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -839,7 +839,7 @@
         <v>27.3</v>
       </c>
       <c r="E9">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="F9">
         <v>41.47722766846882</v>
@@ -848,31 +848,31 @@
         <v>1.15</v>
       </c>
       <c r="H9">
-        <v>110</v>
+        <v>107.2</v>
       </c>
       <c r="I9">
-        <v>-82.7</v>
+        <v>-79.90000000000001</v>
       </c>
       <c r="J9">
-        <v>58.45120803092415</v>
+        <v>62.18377979303963</v>
       </c>
       <c r="K9">
-        <v>42.35000873814101</v>
+        <v>58.14019566753084</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>11.3</v>
+        <v>16.2</v>
       </c>
       <c r="N9">
-        <v>9.252294406874995</v>
+        <v>16.160546875</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>11.3</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -889,7 +889,7 @@
         <v>30.9</v>
       </c>
       <c r="E10">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F10">
         <v>41.47722766846882</v>
@@ -898,31 +898,31 @@
         <v>1.15</v>
       </c>
       <c r="H10">
-        <v>73</v>
+        <v>72.3</v>
       </c>
       <c r="I10">
-        <v>-42.1</v>
+        <v>-41.4</v>
       </c>
       <c r="J10">
-        <v>41.26389187086345</v>
+        <v>43.46662996995599</v>
       </c>
       <c r="K10">
-        <v>31.98611686727757</v>
+        <v>45.57356569757485</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>5.1</v>
+        <v>8.1</v>
       </c>
       <c r="N10">
-        <v>4.163532483093747</v>
+        <v>8.080273437500001</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>5.1</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -939,7 +939,7 @@
         <v>347.3</v>
       </c>
       <c r="E11">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F11">
         <v>41.47722766846882</v>
@@ -948,31 +948,31 @@
         <v>1.15</v>
       </c>
       <c r="H11">
-        <v>49.1</v>
+        <v>49.6</v>
       </c>
       <c r="I11">
-        <v>298.2</v>
+        <v>297.7</v>
       </c>
       <c r="J11">
-        <v>49.1</v>
+        <v>49.6</v>
       </c>
       <c r="K11">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L11">
-        <v>180.1861168672776</v>
+        <v>173.2735656975748</v>
       </c>
       <c r="M11">
-        <v>101.4</v>
+        <v>90.7</v>
       </c>
       <c r="N11">
-        <v>82.95734220766708</v>
+        <v>90.67691956753742</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>101.4</v>
+        <v>90.7</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -989,7 +989,7 @@
         <v>376.8</v>
       </c>
       <c r="E12">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F12">
         <v>41.47722766846882</v>
@@ -998,31 +998,31 @@
         <v>1.15</v>
       </c>
       <c r="H12">
-        <v>22.7</v>
+        <v>24</v>
       </c>
       <c r="I12">
-        <v>354.1</v>
+        <v>352.8</v>
       </c>
       <c r="J12">
-        <v>22.7</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L12">
-        <v>354.1</v>
+        <v>352.8</v>
       </c>
       <c r="M12">
-        <v>240.4</v>
+        <v>221.7</v>
       </c>
       <c r="N12">
-        <v>196.6758039934502</v>
+        <v>221.7384597837687</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>240.4</v>
+        <v>221.7</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1039,7 +1039,7 @@
         <v>451.2</v>
       </c>
       <c r="E13">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="F13">
         <v>41.47722766846882</v>
@@ -1048,31 +1048,31 @@
         <v>1.15</v>
       </c>
       <c r="H13">
-        <v>10.3</v>
+        <v>10.9</v>
       </c>
       <c r="I13">
-        <v>440.9</v>
+        <v>440.3</v>
       </c>
       <c r="J13">
-        <v>10.3</v>
+        <v>10.9</v>
       </c>
       <c r="K13">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L13">
-        <v>440.9</v>
+        <v>440.3</v>
       </c>
       <c r="M13">
-        <v>350.7</v>
+        <v>331</v>
       </c>
       <c r="N13">
-        <v>286.9091117970525</v>
+        <v>331.0192298918844</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>350.7</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1089,7 +1089,7 @@
         <v>273.1</v>
       </c>
       <c r="E14">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="F14">
         <v>43.7762839764459</v>
@@ -1098,31 +1098,31 @@
         <v>1.19</v>
       </c>
       <c r="H14">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I14">
-        <v>268.4</v>
+        <v>268.2</v>
       </c>
       <c r="J14">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K14">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L14">
-        <v>268.4</v>
+        <v>268.2</v>
       </c>
       <c r="M14">
-        <v>305.4</v>
+        <v>299.6</v>
       </c>
       <c r="N14">
-        <v>249.8891003086736</v>
+        <v>299.6096149459422</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>305.4</v>
+        <v>299.6</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1139,7 +1139,7 @@
         <v>220.7</v>
       </c>
       <c r="E15">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F15">
         <v>43.7762839764459</v>
@@ -1148,31 +1148,31 @@
         <v>1.19</v>
       </c>
       <c r="H15">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I15">
-        <v>215.8</v>
+        <v>215.6</v>
       </c>
       <c r="J15">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K15">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L15">
-        <v>215.8</v>
+        <v>215.6</v>
       </c>
       <c r="M15">
-        <v>256.1</v>
+        <v>257.6</v>
       </c>
       <c r="N15">
-        <v>209.5600951389031</v>
+        <v>257.6048074729711</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>256.1</v>
+        <v>257.6</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1207,22 +1207,22 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L16">
         <v>218.7</v>
       </c>
       <c r="M16">
-        <v>235.5</v>
+        <v>238.2</v>
       </c>
       <c r="N16">
-        <v>192.7170428125063</v>
+        <v>238.1524037364856</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>235.5</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1239,7 +1239,7 @@
         <v>110.1</v>
       </c>
       <c r="E17">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="F17">
         <v>43.7762839764459</v>
@@ -1248,31 +1248,31 @@
         <v>1.19</v>
       </c>
       <c r="H17">
-        <v>47.5</v>
+        <v>46.6</v>
       </c>
       <c r="I17">
-        <v>62.59999999999999</v>
+        <v>63.49999999999999</v>
       </c>
       <c r="J17">
-        <v>47.5</v>
+        <v>46.6</v>
       </c>
       <c r="K17">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L17">
-        <v>62.59999999999999</v>
+        <v>63.49999999999999</v>
       </c>
       <c r="M17">
-        <v>140.4</v>
+        <v>150.8</v>
       </c>
       <c r="N17">
-        <v>114.8926692656278</v>
+        <v>150.8262018682428</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>140.4</v>
+        <v>150.8</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1289,7 +1289,7 @@
         <v>43.7</v>
       </c>
       <c r="E18">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="F18">
         <v>43.7762839764459</v>
@@ -1298,31 +1298,31 @@
         <v>1.19</v>
       </c>
       <c r="H18">
-        <v>83.2</v>
+        <v>79.8</v>
       </c>
       <c r="I18">
-        <v>-39.5</v>
+        <v>-36.09999999999999</v>
       </c>
       <c r="J18">
-        <v>78.42714609272078</v>
+        <v>76.22453073104808</v>
       </c>
       <c r="K18">
-        <v>115.2728539072792</v>
+        <v>137.4754692689519</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>63.2</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="N18">
-        <v>51.70170116953253</v>
+        <v>75.41310093412139</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>63.2</v>
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1339,7 +1339,7 @@
         <v>27.5</v>
       </c>
       <c r="E19">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="F19">
         <v>43.7762839764459</v>
@@ -1348,31 +1348,31 @@
         <v>1.19</v>
       </c>
       <c r="H19">
-        <v>96.3</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="I19">
-        <v>-68.8</v>
+        <v>-64.90000000000001</v>
       </c>
       <c r="J19">
-        <v>69.90589526169647</v>
+        <v>71.12706217533898</v>
       </c>
       <c r="K19">
-        <v>72.86695864558276</v>
+        <v>93.84840709361296</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>28.4</v>
+        <v>37.7</v>
       </c>
       <c r="N19">
-        <v>23.26576552628963</v>
+        <v>37.70655046706069</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>28.4</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1389,7 +1389,7 @@
         <v>25.4</v>
       </c>
       <c r="E20">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="F20">
         <v>43.7762839764459</v>
@@ -1398,31 +1398,31 @@
         <v>1.19</v>
       </c>
       <c r="H20">
-        <v>119.5</v>
+        <v>114.8</v>
       </c>
       <c r="I20">
-        <v>-94.09999999999999</v>
+        <v>-89.40000000000001</v>
       </c>
       <c r="J20">
-        <v>59.35498687937179</v>
+        <v>63.78084200769624</v>
       </c>
       <c r="K20">
-        <v>38.91197176621096</v>
+        <v>55.46756508591672</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>12.8</v>
+        <v>18.9</v>
       </c>
       <c r="N20">
-        <v>10.46959448683034</v>
+        <v>18.85327523353035</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.8</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1439,7 +1439,7 @@
         <v>19.8</v>
       </c>
       <c r="E21">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="F21">
         <v>43.7762839764459</v>
@@ -1448,31 +1448,31 @@
         <v>1.19</v>
       </c>
       <c r="H21">
-        <v>121.3</v>
+        <v>118.2</v>
       </c>
       <c r="I21">
-        <v>-101.5</v>
+        <v>-98.40000000000001</v>
       </c>
       <c r="J21">
-        <v>38.93268446827538</v>
+        <v>44.17480779153119</v>
       </c>
       <c r="K21">
-        <v>19.77928729793558</v>
+        <v>31.09275729438553</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.8</v>
+        <v>9.4</v>
       </c>
       <c r="N21">
-        <v>4.71131751907365</v>
+        <v>9.426637616765174</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>5.8</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1489,7 +1489,7 @@
         <v>45.9</v>
       </c>
       <c r="E22">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F22">
         <v>43.7762839764459</v>
@@ -1498,31 +1498,31 @@
         <v>1.19</v>
       </c>
       <c r="H22">
-        <v>81.90000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="I22">
-        <v>-36.00000000000001</v>
+        <v>-35.2</v>
       </c>
       <c r="J22">
-        <v>50.12034883733966</v>
+        <v>51.71522159935374</v>
       </c>
       <c r="K22">
-        <v>15.55893846059591</v>
+        <v>25.27753569503179</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="N22">
-        <v>2.120092883583142</v>
+        <v>4.713318808382587</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1539,7 +1539,7 @@
         <v>26.2</v>
       </c>
       <c r="E23">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F23">
         <v>43.7762839764459</v>
@@ -1548,31 +1548,31 @@
         <v>1.19</v>
       </c>
       <c r="H23">
-        <v>42</v>
+        <v>42.5</v>
       </c>
       <c r="I23">
-        <v>-15.8</v>
+        <v>-16.3</v>
       </c>
       <c r="J23">
-        <v>27.75551320558367</v>
+        <v>28.51110232679672</v>
       </c>
       <c r="K23">
-        <v>14.00342525501224</v>
+        <v>22.96643336823507</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="N23">
-        <v>0.9540417976124139</v>
+        <v>2.356659404191293</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1589,7 +1589,7 @@
         <v>105.7</v>
       </c>
       <c r="E24">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F24">
         <v>43.7762839764459</v>
@@ -1598,31 +1598,31 @@
         <v>1.19</v>
       </c>
       <c r="H24">
-        <v>26.8</v>
+        <v>28.4</v>
       </c>
       <c r="I24">
-        <v>78.90000000000001</v>
+        <v>77.30000000000001</v>
       </c>
       <c r="J24">
-        <v>26.8</v>
+        <v>28.4</v>
       </c>
       <c r="K24">
-        <v>92.90342525501225</v>
+        <v>100.2664333682351</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="N24">
-        <v>0.4293188089255862</v>
+        <v>1.178329702095647</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1639,7 +1639,7 @@
         <v>449.6</v>
       </c>
       <c r="E25">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="F25">
         <v>43.7762839764459</v>
@@ -1648,31 +1648,31 @@
         <v>1.19</v>
       </c>
       <c r="H25">
-        <v>8.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I25">
-        <v>441.3</v>
+        <v>440.8</v>
       </c>
       <c r="J25">
-        <v>8.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K25">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L25">
-        <v>384.2034252550122</v>
+        <v>371.0664333682351</v>
       </c>
       <c r="M25">
-        <v>211.5</v>
+        <v>186.1</v>
       </c>
       <c r="N25">
-        <v>173.084734828772</v>
+        <v>186.1223815351654</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>211.5</v>
+        <v>186.1</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1689,7 +1689,7 @@
         <v>197.8</v>
       </c>
       <c r="E26">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="F26">
         <v>38.1245968973419</v>
@@ -1698,31 +1698,31 @@
         <v>1.1</v>
       </c>
       <c r="H26">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="I26">
-        <v>196.7</v>
+        <v>196.6</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>346.7</v>
+        <v>366.6</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>95.2</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="N26">
-        <v>77.8881306729474</v>
+        <v>93.06119076758269</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26">
-        <v>95.2</v>
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1739,7 +1739,7 @@
         <v>287.7</v>
       </c>
       <c r="E27">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F27">
         <v>38.1245968973419</v>
@@ -1748,31 +1748,31 @@
         <v>1.1</v>
       </c>
       <c r="H27">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="I27">
-        <v>278.6</v>
+        <v>278.3</v>
       </c>
       <c r="J27">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="K27">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L27">
-        <v>278.6</v>
+        <v>278.3</v>
       </c>
       <c r="M27">
-        <v>196.1</v>
+        <v>185.7</v>
       </c>
       <c r="N27">
-        <v>160.4196588028263</v>
+        <v>185.6805953837913</v>
       </c>
       <c r="O27">
         <v>19.8</v>
       </c>
       <c r="P27">
-        <v>215.9</v>
+        <v>205.5</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1807,22 +1807,22 @@
         <v>20.7</v>
       </c>
       <c r="K28">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L28">
         <v>69.39999999999999</v>
       </c>
       <c r="M28">
-        <v>126.4</v>
+        <v>127.5</v>
       </c>
       <c r="N28">
-        <v>103.4188464612718</v>
+        <v>127.5402976918957</v>
       </c>
       <c r="O28">
         <v>98.90000000000001</v>
       </c>
       <c r="P28">
-        <v>225.3</v>
+        <v>226.4</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1839,7 +1839,7 @@
         <v>93</v>
       </c>
       <c r="E29">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="F29">
         <v>38.1245968973419</v>
@@ -1848,31 +1848,31 @@
         <v>1.1</v>
       </c>
       <c r="H29">
-        <v>45.7</v>
+        <v>44.9</v>
       </c>
       <c r="I29">
-        <v>47.3</v>
+        <v>48.1</v>
       </c>
       <c r="J29">
-        <v>45.7</v>
+        <v>44.9</v>
       </c>
       <c r="K29">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L29">
-        <v>47.3</v>
+        <v>48.1</v>
       </c>
       <c r="M29">
-        <v>82.90000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="N29">
-        <v>67.82348090757232</v>
+        <v>87.82014884594783</v>
       </c>
       <c r="O29">
         <v>49.4</v>
       </c>
       <c r="P29">
-        <v>132.3</v>
+        <v>137.2</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1889,7 +1889,7 @@
         <v>206.3</v>
       </c>
       <c r="E30">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="F30">
         <v>38.1245968973419</v>
@@ -1898,31 +1898,31 @@
         <v>1.1</v>
       </c>
       <c r="H30">
-        <v>70.7</v>
+        <v>67.8</v>
       </c>
       <c r="I30">
-        <v>135.6</v>
+        <v>138.5</v>
       </c>
       <c r="J30">
-        <v>70.7</v>
+        <v>67.8</v>
       </c>
       <c r="K30">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L30">
-        <v>135.6</v>
+        <v>138.5</v>
       </c>
       <c r="M30">
-        <v>111.9</v>
+        <v>113.2</v>
       </c>
       <c r="N30">
-        <v>91.54056640840756</v>
+        <v>113.1600744229739</v>
       </c>
       <c r="O30">
         <v>24.7</v>
       </c>
       <c r="P30">
-        <v>136.6</v>
+        <v>137.9</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1939,7 +1939,7 @@
         <v>166.5</v>
       </c>
       <c r="E31">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="F31">
         <v>38.1245968973419</v>
@@ -1948,31 +1948,31 @@
         <v>1.1</v>
       </c>
       <c r="H31">
-        <v>98.90000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="I31">
-        <v>67.59999999999999</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="J31">
-        <v>98.90000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="K31">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L31">
-        <v>67.59999999999999</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="M31">
-        <v>87.5</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="N31">
-        <v>71.6132548837834</v>
+        <v>92.38003721148695</v>
       </c>
       <c r="O31">
         <v>12.4</v>
       </c>
       <c r="P31">
-        <v>99.90000000000001</v>
+        <v>104.8</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1989,7 +1989,7 @@
         <v>63.6</v>
       </c>
       <c r="E32">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="F32">
         <v>38.1245968973419</v>
@@ -1998,31 +1998,31 @@
         <v>1.1</v>
       </c>
       <c r="H32">
-        <v>124.4</v>
+        <v>119.5</v>
       </c>
       <c r="I32">
-        <v>-60.8</v>
+        <v>-55.9</v>
       </c>
       <c r="J32">
-        <v>113.5868216542492</v>
+        <v>111.2390959574453</v>
       </c>
       <c r="K32">
-        <v>100.0131783457508</v>
+        <v>122.3609040425547</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>39.4</v>
+        <v>46.2</v>
       </c>
       <c r="N32">
-        <v>32.22596469770252</v>
+        <v>46.19001860574348</v>
       </c>
       <c r="O32">
         <v>6.2</v>
       </c>
       <c r="P32">
-        <v>45.6</v>
+        <v>52.40000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2039,7 +2039,7 @@
         <v>90.90000000000001</v>
       </c>
       <c r="E33">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="F33">
         <v>38.1245968973419</v>
@@ -2048,31 +2048,31 @@
         <v>1.1</v>
       </c>
       <c r="H33">
-        <v>102.8</v>
+        <v>100.2</v>
       </c>
       <c r="I33">
-        <v>-11.89999999999999</v>
+        <v>-9.299999999999997</v>
       </c>
       <c r="J33">
-        <v>98.52780883988972</v>
+        <v>97.41405808454844</v>
       </c>
       <c r="K33">
-        <v>92.38536950586108</v>
+        <v>115.8468459580062</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>17.7</v>
+        <v>23.1</v>
       </c>
       <c r="N33">
-        <v>14.50168411396613</v>
+        <v>23.09500930287174</v>
       </c>
       <c r="O33">
         <v>3.1</v>
       </c>
       <c r="P33">
-        <v>20.8</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2089,7 +2089,7 @@
         <v>139.2</v>
       </c>
       <c r="E34">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F34">
         <v>38.1245968973419</v>
@@ -2098,31 +2098,31 @@
         <v>1.1</v>
       </c>
       <c r="H34">
-        <v>70.09999999999999</v>
+        <v>69.5</v>
       </c>
       <c r="I34">
-        <v>69.09999999999999</v>
+        <v>69.69999999999999</v>
       </c>
       <c r="J34">
-        <v>70.09999999999999</v>
+        <v>69.5</v>
       </c>
       <c r="K34">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L34">
-        <v>11.48536950586107</v>
+        <v>15.54684595800623</v>
       </c>
       <c r="M34">
-        <v>14.3</v>
+        <v>19.3</v>
       </c>
       <c r="N34">
-        <v>11.69417412892224</v>
+        <v>19.32092763043898</v>
       </c>
       <c r="O34">
         <v>1.5</v>
       </c>
       <c r="P34">
-        <v>15.8</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2139,7 +2139,7 @@
         <v>251.7</v>
       </c>
       <c r="E35">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F35">
         <v>38.1245968973419</v>
@@ -2148,31 +2148,31 @@
         <v>1.1</v>
       </c>
       <c r="H35">
-        <v>43.9</v>
+        <v>44.3</v>
       </c>
       <c r="I35">
-        <v>207.8</v>
+        <v>207.4</v>
       </c>
       <c r="J35">
-        <v>43.9</v>
+        <v>44.3</v>
       </c>
       <c r="K35">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L35">
-        <v>207.8</v>
+        <v>207.4</v>
       </c>
       <c r="M35">
-        <v>120.7</v>
+        <v>113.4</v>
       </c>
       <c r="N35">
-        <v>98.77237835801499</v>
+        <v>113.3604638152195</v>
       </c>
       <c r="O35">
         <v>0.8</v>
       </c>
       <c r="P35">
-        <v>121.5</v>
+        <v>114.2</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2189,7 +2189,7 @@
         <v>509.9</v>
       </c>
       <c r="E36">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F36">
         <v>38.1245968973419</v>
@@ -2198,31 +2198,31 @@
         <v>1.1</v>
       </c>
       <c r="H36">
-        <v>27.5</v>
+        <v>29.2</v>
       </c>
       <c r="I36">
-        <v>482.4</v>
+        <v>480.7</v>
       </c>
       <c r="J36">
-        <v>27.5</v>
+        <v>29.2</v>
       </c>
       <c r="K36">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L36">
-        <v>482.4</v>
+        <v>480.7</v>
       </c>
       <c r="M36">
-        <v>319.6</v>
+        <v>297</v>
       </c>
       <c r="N36">
-        <v>261.5275702611067</v>
+        <v>297.0302319076097</v>
       </c>
       <c r="O36">
         <v>0.4</v>
       </c>
       <c r="P36">
-        <v>320</v>
+        <v>297.4</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2239,7 +2239,7 @@
         <v>472.3</v>
       </c>
       <c r="E37">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="F37">
         <v>38.1245968973419</v>
@@ -2248,31 +2248,31 @@
         <v>1.1</v>
       </c>
       <c r="H37">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="I37">
-        <v>465.6</v>
+        <v>465.2</v>
       </c>
       <c r="J37">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="K37">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L37">
-        <v>465.6</v>
+        <v>465.2</v>
       </c>
       <c r="M37">
-        <v>399.9</v>
+        <v>381.1</v>
       </c>
       <c r="N37">
-        <v>327.207406617498</v>
+        <v>381.1151159538049</v>
       </c>
       <c r="O37">
         <v>0</v>
       </c>
       <c r="P37">
-        <v>399.9</v>
+        <v>381.1</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2289,7 +2289,7 @@
         <v>81.90000000000001</v>
       </c>
       <c r="E38">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="F38">
         <v>44.37197994184683</v>
@@ -2298,31 +2298,31 @@
         <v>1.19</v>
       </c>
       <c r="H38">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I38">
-        <v>74.5</v>
+        <v>74.10000000000001</v>
       </c>
       <c r="J38">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="K38">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L38">
-        <v>74.5</v>
+        <v>74.10000000000001</v>
       </c>
       <c r="M38">
-        <v>220.9</v>
+        <v>227.6</v>
       </c>
       <c r="N38">
-        <v>180.7683329778741</v>
+        <v>227.6075579769025</v>
       </c>
       <c r="O38">
         <v>0</v>
       </c>
       <c r="P38">
-        <v>220.9</v>
+        <v>227.6</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2339,7 +2339,7 @@
         <v>111.4</v>
       </c>
       <c r="E39">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F39">
         <v>44.37197994184683</v>
@@ -2348,31 +2348,31 @@
         <v>1.19</v>
       </c>
       <c r="H39">
-        <v>11</v>
+        <v>11.4</v>
       </c>
       <c r="I39">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="J39">
-        <v>11</v>
+        <v>11.4</v>
       </c>
       <c r="K39">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L39">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="M39">
-        <v>154.6</v>
+        <v>163.8</v>
       </c>
       <c r="N39">
-        <v>126.5257498400433</v>
+        <v>163.8037789884512</v>
       </c>
       <c r="O39">
         <v>0</v>
       </c>
       <c r="P39">
-        <v>154.6</v>
+        <v>163.8</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2407,22 +2407,22 @@
         <v>19.9</v>
       </c>
       <c r="K40">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L40">
         <v>190.5</v>
       </c>
       <c r="M40">
-        <v>174.4</v>
+        <v>177.2</v>
       </c>
       <c r="N40">
-        <v>142.6615874280195</v>
+        <v>177.1518894942256</v>
       </c>
       <c r="O40">
         <v>0</v>
       </c>
       <c r="P40">
-        <v>174.4</v>
+        <v>177.2</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2439,7 +2439,7 @@
         <v>22</v>
       </c>
       <c r="E41">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="F41">
         <v>44.37197994184683</v>
@@ -2448,31 +2448,31 @@
         <v>1.19</v>
       </c>
       <c r="H41">
-        <v>50.6</v>
+        <v>49.7</v>
       </c>
       <c r="I41">
-        <v>-28.6</v>
+        <v>-27.7</v>
       </c>
       <c r="J41">
-        <v>48.03879826271013</v>
+        <v>47.56100180775084</v>
       </c>
       <c r="K41">
-        <v>123.9612017372899</v>
+        <v>144.4389981922492</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
-        <v>78.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="N41">
-        <v>64.19771434260876</v>
+        <v>88.5759447471128</v>
       </c>
       <c r="O41">
         <v>0</v>
       </c>
       <c r="P41">
-        <v>78.5</v>
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2489,7 +2489,7 @@
         <v>32.3</v>
       </c>
       <c r="E42">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="F42">
         <v>44.37197994184683</v>
@@ -2498,31 +2498,31 @@
         <v>1.19</v>
       </c>
       <c r="H42">
-        <v>76.5</v>
+        <v>73.5</v>
       </c>
       <c r="I42">
-        <v>-44.2</v>
+        <v>-41.2</v>
       </c>
       <c r="J42">
-        <v>63.93740195224538</v>
+        <v>63.38628428309094</v>
       </c>
       <c r="K42">
-        <v>92.32379978504449</v>
+        <v>113.3527139091582</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42">
-        <v>35.3</v>
+        <v>44.3</v>
       </c>
       <c r="N42">
-        <v>28.88897145417394</v>
+        <v>44.2879723735564</v>
       </c>
       <c r="O42">
         <v>0</v>
       </c>
       <c r="P42">
-        <v>35.3</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2539,7 +2539,7 @@
         <v>140.9</v>
       </c>
       <c r="E43">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="F43">
         <v>44.37197994184683</v>
@@ -2548,31 +2548,31 @@
         <v>1.19</v>
       </c>
       <c r="H43">
-        <v>103.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I43">
-        <v>37.10000000000001</v>
+        <v>41.30000000000001</v>
       </c>
       <c r="J43">
-        <v>103.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="K43">
-        <v>129.4237997850445</v>
+        <v>154.6527139091582</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43">
-        <v>15.9</v>
+        <v>22.1</v>
       </c>
       <c r="N43">
-        <v>13.00003715437827</v>
+        <v>22.1439861867782</v>
       </c>
       <c r="O43">
         <v>0</v>
       </c>
       <c r="P43">
-        <v>15.9</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2589,7 +2589,7 @@
         <v>59.3</v>
       </c>
       <c r="E44">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="F44">
         <v>44.37197994184683</v>
@@ -2598,31 +2598,31 @@
         <v>1.19</v>
       </c>
       <c r="H44">
-        <v>108.3</v>
+        <v>104</v>
       </c>
       <c r="I44">
-        <v>-49</v>
+        <v>-44.7</v>
       </c>
       <c r="J44">
-        <v>95.36728814800273</v>
+        <v>95.05769957563598</v>
       </c>
       <c r="K44">
-        <v>93.35651163704176</v>
+        <v>118.8950143335222</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
       <c r="M44">
-        <v>7.2</v>
+        <v>11.1</v>
       </c>
       <c r="N44">
-        <v>5.850016719470222</v>
+        <v>11.0719930933891</v>
       </c>
       <c r="O44">
         <v>0</v>
       </c>
       <c r="P44">
-        <v>7.2</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2639,7 +2639,7 @@
         <v>20.2</v>
       </c>
       <c r="E45">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="F45">
         <v>44.37197994184683</v>
@@ -2648,31 +2648,31 @@
         <v>1.19</v>
       </c>
       <c r="H45">
-        <v>112.6</v>
+        <v>109.7</v>
       </c>
       <c r="I45">
-        <v>-92.39999999999999</v>
+        <v>-89.5</v>
       </c>
       <c r="J45">
-        <v>63.13461072290721</v>
+        <v>68.86538565134863</v>
       </c>
       <c r="K45">
-        <v>50.42190091413455</v>
+        <v>70.2296286821736</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N45">
-        <v>2.6325075237616</v>
+        <v>5.53599654669455</v>
       </c>
       <c r="O45">
         <v>0</v>
       </c>
       <c r="P45">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2689,7 +2689,7 @@
         <v>58.7</v>
       </c>
       <c r="E46">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F46">
         <v>44.37197994184683</v>
@@ -2698,31 +2698,31 @@
         <v>1.19</v>
       </c>
       <c r="H46">
-        <v>86.90000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="I46">
-        <v>-28.2</v>
+        <v>-27.39999999999999</v>
       </c>
       <c r="J46">
-        <v>67.34157225005372</v>
+        <v>69.15425215491082</v>
       </c>
       <c r="K46">
-        <v>41.78032866408083</v>
+        <v>59.77537652726279</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
       <c r="M46">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="N46">
-        <v>1.18462838569272</v>
+        <v>2.767998273347275</v>
       </c>
       <c r="O46">
         <v>0</v>
       </c>
       <c r="P46">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2739,7 +2739,7 @@
         <v>192.2</v>
       </c>
       <c r="E47">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F47">
         <v>44.37197994184683</v>
@@ -2748,31 +2748,31 @@
         <v>1.19</v>
       </c>
       <c r="H47">
-        <v>43.3</v>
+        <v>43.7</v>
       </c>
       <c r="I47">
-        <v>148.9</v>
+        <v>148.5</v>
       </c>
       <c r="J47">
-        <v>43.3</v>
+        <v>43.7</v>
       </c>
       <c r="K47">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L47">
-        <v>40.6803286640808</v>
+        <v>38.27537652726278</v>
       </c>
       <c r="M47">
-        <v>23</v>
+        <v>20.5</v>
       </c>
       <c r="N47">
-        <v>18.83923067239808</v>
+        <v>20.52168740030503</v>
       </c>
       <c r="O47">
         <v>0</v>
       </c>
       <c r="P47">
-        <v>23</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2789,7 +2789,7 @@
         <v>104.7</v>
       </c>
       <c r="E48">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F48">
         <v>44.37197994184683</v>
@@ -2798,31 +2798,31 @@
         <v>1.19</v>
       </c>
       <c r="H48">
-        <v>22.5</v>
+        <v>23.8</v>
       </c>
       <c r="I48">
-        <v>82.2</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="J48">
-        <v>22.5</v>
+        <v>23.8</v>
       </c>
       <c r="K48">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L48">
-        <v>82.2</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="M48">
-        <v>55.6</v>
+        <v>50.7</v>
       </c>
       <c r="N48">
-        <v>45.46765380257914</v>
+        <v>50.71084370015252</v>
       </c>
       <c r="O48">
         <v>0</v>
       </c>
       <c r="P48">
-        <v>55.6</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2839,7 +2839,7 @@
         <v>175.1</v>
       </c>
       <c r="E49">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="F49">
         <v>44.37197994184683</v>
@@ -2848,31 +2848,31 @@
         <v>1.19</v>
       </c>
       <c r="H49">
-        <v>14.6</v>
+        <v>15.5</v>
       </c>
       <c r="I49">
-        <v>160.5</v>
+        <v>159.6</v>
       </c>
       <c r="J49">
-        <v>14.6</v>
+        <v>15.5</v>
       </c>
       <c r="K49">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L49">
-        <v>160.5</v>
+        <v>159.6</v>
       </c>
       <c r="M49">
-        <v>113.3</v>
+        <v>105.2</v>
       </c>
       <c r="N49">
-        <v>92.68544421116061</v>
+        <v>105.1554218500763</v>
       </c>
       <c r="O49">
         <v>0</v>
       </c>
       <c r="P49">
-        <v>113.3</v>
+        <v>105.2</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -2889,7 +2889,7 @@
         <v>41</v>
       </c>
       <c r="E50">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="F50">
         <v>45.87866638985039</v>
@@ -2898,31 +2898,31 @@
         <v>1.22</v>
       </c>
       <c r="H50">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="I50">
-        <v>34.9</v>
+        <v>34.6</v>
       </c>
       <c r="J50">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="K50">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L50">
-        <v>34.9</v>
+        <v>34.6</v>
       </c>
       <c r="M50">
-        <v>70.2</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="N50">
-        <v>57.41344989502227</v>
+        <v>69.87771092503813</v>
       </c>
       <c r="O50">
         <v>0</v>
       </c>
       <c r="P50">
-        <v>70.2</v>
+        <v>69.90000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -2939,7 +2939,7 @@
         <v>67</v>
       </c>
       <c r="E51">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F51">
         <v>45.87866638985039</v>
@@ -2957,22 +2957,22 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
       <c r="M51">
-        <v>31.6</v>
+        <v>34.9</v>
       </c>
       <c r="N51">
-        <v>25.83605245276002</v>
+        <v>34.93885546251907</v>
       </c>
       <c r="O51">
         <v>0</v>
       </c>
       <c r="P51">
-        <v>31.6</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3007,22 +3007,22 @@
         <v>34</v>
       </c>
       <c r="K52">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
       <c r="M52">
-        <v>14.8</v>
+        <v>18</v>
       </c>
       <c r="N52">
-        <v>12.07622360374201</v>
+        <v>17.96942773125953</v>
       </c>
       <c r="O52">
         <v>6.7</v>
       </c>
       <c r="P52">
-        <v>21.5</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3039,7 +3039,7 @@
         <v>237</v>
       </c>
       <c r="E53">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="F53">
         <v>45.87866638985039</v>
@@ -3048,31 +3048,31 @@
         <v>1.22</v>
       </c>
       <c r="H53">
-        <v>41</v>
+        <v>40.2</v>
       </c>
       <c r="I53">
-        <v>196</v>
+        <v>196.8</v>
       </c>
       <c r="J53">
-        <v>41</v>
+        <v>40.2</v>
       </c>
       <c r="K53">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L53">
-        <v>196</v>
+        <v>196.8</v>
       </c>
       <c r="M53">
-        <v>114.4</v>
+        <v>107.4</v>
       </c>
       <c r="N53">
-        <v>93.63430062168389</v>
+        <v>107.3847138656298</v>
       </c>
       <c r="O53">
         <v>33.5</v>
       </c>
       <c r="P53">
-        <v>147.9</v>
+        <v>140.9</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3089,7 +3089,7 @@
         <v>166</v>
       </c>
       <c r="E54">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="F54">
         <v>45.87866638985039</v>
@@ -3098,31 +3098,31 @@
         <v>1.22</v>
       </c>
       <c r="H54">
-        <v>70</v>
+        <v>67.2</v>
       </c>
       <c r="I54">
-        <v>96</v>
+        <v>98.8</v>
       </c>
       <c r="J54">
-        <v>70</v>
+        <v>67.2</v>
       </c>
       <c r="K54">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L54">
-        <v>96</v>
+        <v>98.8</v>
       </c>
       <c r="M54">
-        <v>104.3</v>
+        <v>103.1</v>
       </c>
       <c r="N54">
-        <v>85.33543527975775</v>
+        <v>103.0923569328149</v>
       </c>
       <c r="O54">
         <v>16.8</v>
       </c>
       <c r="P54">
-        <v>121.1</v>
+        <v>119.9</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3139,7 +3139,7 @@
         <v>24</v>
       </c>
       <c r="E55">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="F55">
         <v>45.87866638985039</v>
@@ -3148,31 +3148,31 @@
         <v>1.22</v>
       </c>
       <c r="H55">
-        <v>106.7</v>
+        <v>102.4</v>
       </c>
       <c r="I55">
-        <v>-82.7</v>
+        <v>-78.40000000000001</v>
       </c>
       <c r="J55">
-        <v>87.57284151253994</v>
+        <v>86.8079627533762</v>
       </c>
       <c r="K55">
-        <v>86.42715848746006</v>
+        <v>107.1920372466238</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
       <c r="M55">
-        <v>46.9</v>
+        <v>51.5</v>
       </c>
       <c r="N55">
-        <v>38.40094587589098</v>
+        <v>51.54617846640744</v>
       </c>
       <c r="O55">
         <v>8.4</v>
       </c>
       <c r="P55">
-        <v>55.3</v>
+        <v>59.9</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3189,7 +3189,7 @@
         <v>11</v>
       </c>
       <c r="E56">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="F56">
         <v>45.87866638985039</v>
@@ -3198,31 +3198,31 @@
         <v>1.22</v>
       </c>
       <c r="H56">
-        <v>125.5</v>
+        <v>120.5</v>
       </c>
       <c r="I56">
-        <v>-114.5</v>
+        <v>-109.5</v>
       </c>
       <c r="J56">
-        <v>57.14258404787797</v>
+        <v>61.90274537446374</v>
       </c>
       <c r="K56">
-        <v>40.28457443958209</v>
+        <v>56.28929187216006</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
       <c r="M56">
-        <v>21.1</v>
+        <v>25.8</v>
       </c>
       <c r="N56">
-        <v>17.28042564415094</v>
+        <v>25.77308923320372</v>
       </c>
       <c r="O56">
         <v>4.2</v>
       </c>
       <c r="P56">
-        <v>25.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3239,7 +3239,7 @@
         <v>25</v>
       </c>
       <c r="E57">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="F57">
         <v>45.87866638985039</v>
@@ -3248,31 +3248,31 @@
         <v>1.22</v>
       </c>
       <c r="H57">
-        <v>122.9</v>
+        <v>119.8</v>
       </c>
       <c r="I57">
-        <v>-97.90000000000001</v>
+        <v>-94.8</v>
       </c>
       <c r="J57">
-        <v>44.31018882169147</v>
+        <v>49.06059507384474</v>
       </c>
       <c r="K57">
-        <v>20.97438561789062</v>
+        <v>32.22869679831533</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
       <c r="M57">
-        <v>9.5</v>
+        <v>12.9</v>
       </c>
       <c r="N57">
-        <v>7.776191539867923</v>
+        <v>12.88654461660186</v>
       </c>
       <c r="O57">
         <v>2.1</v>
       </c>
       <c r="P57">
-        <v>11.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3289,7 +3289,7 @@
         <v>108</v>
       </c>
       <c r="E58">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F58">
         <v>45.87866638985039</v>
@@ -3298,31 +3298,31 @@
         <v>1.22</v>
       </c>
       <c r="H58">
-        <v>76.40000000000001</v>
+        <v>75.7</v>
       </c>
       <c r="I58">
-        <v>31.59999999999999</v>
+        <v>32.3</v>
       </c>
       <c r="J58">
-        <v>76.40000000000001</v>
+        <v>75.7</v>
       </c>
       <c r="K58">
-        <v>52.57438561789061</v>
+        <v>64.52869679831532</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
       <c r="M58">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="N58">
-        <v>3.499286192940565</v>
+        <v>6.44327230830093</v>
       </c>
       <c r="O58">
         <v>1</v>
       </c>
       <c r="P58">
-        <v>5.3</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3339,7 +3339,7 @@
         <v>185</v>
       </c>
       <c r="E59">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F59">
         <v>45.87866638985039</v>
@@ -3348,31 +3348,31 @@
         <v>1.22</v>
       </c>
       <c r="H59">
-        <v>50.7</v>
+        <v>51.2</v>
       </c>
       <c r="I59">
-        <v>134.3</v>
+        <v>133.8</v>
       </c>
       <c r="J59">
-        <v>50.7</v>
+        <v>51.2</v>
       </c>
       <c r="K59">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L59">
-        <v>36.87438561789062</v>
+        <v>28.32869679831533</v>
       </c>
       <c r="M59">
-        <v>22.2</v>
+        <v>17.4</v>
       </c>
       <c r="N59">
-        <v>18.16815231487404</v>
+        <v>17.38598455330813</v>
       </c>
       <c r="O59">
         <v>0.5</v>
       </c>
       <c r="P59">
-        <v>22.7</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3389,7 +3389,7 @@
         <v>443</v>
       </c>
       <c r="E60">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F60">
         <v>45.87866638985039</v>
@@ -3398,31 +3398,31 @@
         <v>1.22</v>
       </c>
       <c r="H60">
-        <v>29.4</v>
+        <v>31.2</v>
       </c>
       <c r="I60">
-        <v>413.6</v>
+        <v>411.8</v>
       </c>
       <c r="J60">
-        <v>29.4</v>
+        <v>31.2</v>
       </c>
       <c r="K60">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L60">
-        <v>413.6</v>
+        <v>411.8</v>
       </c>
       <c r="M60">
-        <v>237.5</v>
+        <v>214.6</v>
       </c>
       <c r="N60">
-        <v>194.2956685416933</v>
+        <v>214.5929922766541</v>
       </c>
       <c r="O60">
         <v>0.3</v>
       </c>
       <c r="P60">
-        <v>237.8</v>
+        <v>214.9</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3439,7 +3439,7 @@
         <v>209</v>
       </c>
       <c r="E61">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="F61">
         <v>45.87866638985039</v>
@@ -3448,31 +3448,31 @@
         <v>1.22</v>
       </c>
       <c r="H61">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="I61">
-        <v>203.1</v>
+        <v>202.8</v>
       </c>
       <c r="J61">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="K61">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L61">
-        <v>203.1</v>
+        <v>202.8</v>
       </c>
       <c r="M61">
-        <v>218.6</v>
+        <v>208.7</v>
       </c>
       <c r="N61">
-        <v>178.828050843762</v>
+        <v>208.696496138327</v>
       </c>
       <c r="O61">
         <v>0.1</v>
       </c>
       <c r="P61">
-        <v>218.7</v>
+        <v>208.8</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3489,7 +3489,7 @@
         <v>176.4</v>
       </c>
       <c r="E62">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="F62">
         <v>42.80072879096062</v>
@@ -3498,31 +3498,31 @@
         <v>1.17</v>
       </c>
       <c r="H62">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I62">
-        <v>168.6</v>
+        <v>168.2</v>
       </c>
       <c r="J62">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K62">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L62">
-        <v>168.6</v>
+        <v>168.2</v>
       </c>
       <c r="M62">
-        <v>191.1</v>
+        <v>188.4</v>
       </c>
       <c r="N62">
-        <v>156.3426228796929</v>
+        <v>188.4482480691635</v>
       </c>
       <c r="O62">
         <v>0</v>
       </c>
       <c r="P62">
-        <v>191.1</v>
+        <v>188.4</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3539,7 +3539,7 @@
         <v>105.1</v>
       </c>
       <c r="E63">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F63">
         <v>42.80072879096062</v>
@@ -3548,31 +3548,31 @@
         <v>1.17</v>
       </c>
       <c r="H63">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I63">
-        <v>103</v>
+        <v>102.9</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63">
-        <v>253</v>
+        <v>272.9</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
       <c r="M63">
-        <v>86</v>
+        <v>94.2</v>
       </c>
       <c r="N63">
-        <v>70.35418029586178</v>
+        <v>94.22412403458176</v>
       </c>
       <c r="O63">
         <v>0</v>
       </c>
       <c r="P63">
-        <v>86</v>
+        <v>94.2</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -3607,22 +3607,22 @@
         <v>18.8</v>
       </c>
       <c r="K64">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L64">
         <v>489.3</v>
       </c>
       <c r="M64">
-        <v>307.8</v>
+        <v>291.8</v>
       </c>
       <c r="N64">
-        <v>251.8443811331378</v>
+        <v>291.7620620172909</v>
       </c>
       <c r="O64">
         <v>10.5</v>
       </c>
       <c r="P64">
-        <v>318.3</v>
+        <v>302.3</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -3639,7 +3639,7 @@
         <v>147.6</v>
       </c>
       <c r="E65">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="F65">
         <v>42.80072879096062</v>
@@ -3648,31 +3648,31 @@
         <v>1.17</v>
       </c>
       <c r="H65">
-        <v>51.9</v>
+        <v>50.9</v>
       </c>
       <c r="I65">
-        <v>95.69999999999999</v>
+        <v>96.69999999999999</v>
       </c>
       <c r="J65">
-        <v>51.9</v>
+        <v>50.9</v>
       </c>
       <c r="K65">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L65">
-        <v>95.69999999999999</v>
+        <v>96.69999999999999</v>
       </c>
       <c r="M65">
-        <v>191.1</v>
+        <v>194.2</v>
       </c>
       <c r="N65">
-        <v>156.394971509912</v>
+        <v>194.2310310086454</v>
       </c>
       <c r="O65">
         <v>52.6</v>
       </c>
       <c r="P65">
-        <v>243.7</v>
+        <v>246.8</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -3689,7 +3689,7 @@
         <v>176.8</v>
       </c>
       <c r="E66">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="F66">
         <v>42.80072879096062</v>
@@ -3698,31 +3698,31 @@
         <v>1.17</v>
       </c>
       <c r="H66">
-        <v>66.90000000000001</v>
+        <v>64.2</v>
       </c>
       <c r="I66">
-        <v>109.9</v>
+        <v>112.6</v>
       </c>
       <c r="J66">
-        <v>66.90000000000001</v>
+        <v>64.2</v>
       </c>
       <c r="K66">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L66">
-        <v>109.9</v>
+        <v>112.6</v>
       </c>
       <c r="M66">
-        <v>146.5</v>
+        <v>153.4</v>
       </c>
       <c r="N66">
-        <v>119.8327371794604</v>
+        <v>153.4155155043227</v>
       </c>
       <c r="O66">
         <v>26.3</v>
       </c>
       <c r="P66">
-        <v>172.8</v>
+        <v>179.7</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -3739,7 +3739,7 @@
         <v>42.6</v>
       </c>
       <c r="E67">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="F67">
         <v>42.80072879096062</v>
@@ -3748,31 +3748,31 @@
         <v>1.17</v>
       </c>
       <c r="H67">
-        <v>92.2</v>
+        <v>88.5</v>
       </c>
       <c r="I67">
-        <v>-49.6</v>
+        <v>-45.9</v>
       </c>
       <c r="J67">
-        <v>84.8333083997543</v>
+        <v>82.82548596273497</v>
       </c>
       <c r="K67">
-        <v>107.7666916002457</v>
+        <v>129.774514037265</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
       <c r="M67">
-        <v>65.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="N67">
-        <v>53.92473173075717</v>
+        <v>76.70775775216136</v>
       </c>
       <c r="O67">
         <v>13.1</v>
       </c>
       <c r="P67">
-        <v>79</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -3789,7 +3789,7 @@
         <v>20.4</v>
       </c>
       <c r="E68">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="F68">
         <v>42.80072879096062</v>
@@ -3798,31 +3798,31 @@
         <v>1.17</v>
       </c>
       <c r="H68">
-        <v>121.2</v>
+        <v>116.5</v>
       </c>
       <c r="I68">
-        <v>-100.8</v>
+        <v>-96.09999999999999</v>
       </c>
       <c r="J68">
-        <v>73.13173117291521</v>
+        <v>76.43754272778745</v>
       </c>
       <c r="K68">
-        <v>55.0349604273305</v>
+        <v>73.73697130947758</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
       <c r="M68">
-        <v>29.7</v>
+        <v>38.4</v>
       </c>
       <c r="N68">
-        <v>24.26612927884072</v>
+        <v>38.35387887608068</v>
       </c>
       <c r="O68">
         <v>6.6</v>
       </c>
       <c r="P68">
-        <v>36.3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -3839,7 +3839,7 @@
         <v>12.3</v>
       </c>
       <c r="E69">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="F69">
         <v>42.80072879096062</v>
@@ -3848,31 +3848,31 @@
         <v>1.17</v>
       </c>
       <c r="H69">
-        <v>112</v>
+        <v>109.1</v>
       </c>
       <c r="I69">
-        <v>-99.7</v>
+        <v>-96.8</v>
       </c>
       <c r="J69">
-        <v>39.0225012675254</v>
+        <v>44.31230155531104</v>
       </c>
       <c r="K69">
-        <v>28.3124591598051</v>
+        <v>41.72466975416655</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
       <c r="M69">
-        <v>13.3</v>
+        <v>19.2</v>
       </c>
       <c r="N69">
-        <v>10.91975817547832</v>
+        <v>19.17693943804034</v>
       </c>
       <c r="O69">
         <v>3.3</v>
       </c>
       <c r="P69">
-        <v>16.6</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -3889,7 +3889,7 @@
         <v>19.6</v>
       </c>
       <c r="E70">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F70">
         <v>42.80072879096062</v>
@@ -3898,31 +3898,31 @@
         <v>1.17</v>
       </c>
       <c r="H70">
-        <v>76.7</v>
+        <v>76</v>
       </c>
       <c r="I70">
-        <v>-57.1</v>
+        <v>-56.4</v>
       </c>
       <c r="J70">
-        <v>28.56356450432719</v>
+        <v>31.38070334494244</v>
       </c>
       <c r="K70">
-        <v>19.34889465547791</v>
+        <v>29.94396640922411</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
       <c r="M70">
-        <v>6</v>
+        <v>9.6</v>
       </c>
       <c r="N70">
-        <v>4.913891178965245</v>
+        <v>9.58846971902017</v>
       </c>
       <c r="O70">
         <v>1.6</v>
       </c>
       <c r="P70">
-        <v>7.6</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -3939,7 +3939,7 @@
         <v>141.3</v>
       </c>
       <c r="E71">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F71">
         <v>42.80072879096062</v>
@@ -3948,31 +3948,31 @@
         <v>1.17</v>
       </c>
       <c r="H71">
-        <v>57.9</v>
+        <v>58.5</v>
       </c>
       <c r="I71">
-        <v>83.40000000000001</v>
+        <v>82.80000000000001</v>
       </c>
       <c r="J71">
-        <v>57.9</v>
+        <v>58.5</v>
       </c>
       <c r="K71">
-        <v>102.7488946554779</v>
+        <v>112.7439664092241</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
       <c r="M71">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="N71">
-        <v>2.21125103053436</v>
+        <v>4.794234859510085</v>
       </c>
       <c r="O71">
         <v>0.8</v>
       </c>
       <c r="P71">
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -3989,7 +3989,7 @@
         <v>80</v>
       </c>
       <c r="E72">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F72">
         <v>42.80072879096062</v>
@@ -3998,31 +3998,31 @@
         <v>1.17</v>
       </c>
       <c r="H72">
-        <v>26.4</v>
+        <v>28</v>
       </c>
       <c r="I72">
-        <v>53.6</v>
+        <v>52</v>
       </c>
       <c r="J72">
-        <v>26.4</v>
+        <v>28</v>
       </c>
       <c r="K72">
-        <v>150</v>
+        <v>164.7439664092241</v>
       </c>
       <c r="L72">
-        <v>6.348894655477913</v>
+        <v>0</v>
       </c>
       <c r="M72">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="N72">
-        <v>3.852065558705522</v>
+        <v>2.397117429755042</v>
       </c>
       <c r="O72">
         <v>0.4</v>
       </c>
       <c r="P72">
-        <v>5.100000000000001</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4039,7 +4039,7 @@
         <v>179.1</v>
       </c>
       <c r="E73">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="F73">
         <v>42.80072879096062</v>
@@ -4048,31 +4048,31 @@
         <v>1.17</v>
       </c>
       <c r="H73">
-        <v>13</v>
+        <v>13.8</v>
       </c>
       <c r="I73">
-        <v>166.1</v>
+        <v>165.3</v>
       </c>
       <c r="J73">
-        <v>13</v>
+        <v>13.8</v>
       </c>
       <c r="K73">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L73">
-        <v>166.1</v>
+        <v>160.0439664092241</v>
       </c>
       <c r="M73">
-        <v>93.5</v>
+        <v>81.2</v>
       </c>
       <c r="N73">
-        <v>76.47842950141748</v>
+        <v>81.22054191948958</v>
       </c>
       <c r="O73">
         <v>0.2</v>
       </c>
       <c r="P73">
-        <v>93.7</v>
+        <v>81.40000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4089,7 +4089,7 @@
         <v>576.8</v>
       </c>
       <c r="E74">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="F74">
         <v>46.01190002576926</v>
@@ -4098,31 +4098,31 @@
         <v>1.22</v>
       </c>
       <c r="H74">
-        <v>16</v>
+        <v>16.7</v>
       </c>
       <c r="I74">
-        <v>560.8</v>
+        <v>560.0999999999999</v>
       </c>
       <c r="J74">
-        <v>16</v>
+        <v>16.7</v>
       </c>
       <c r="K74">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L74">
-        <v>560.8</v>
+        <v>560.0999999999999</v>
       </c>
       <c r="M74">
-        <v>350.5</v>
+        <v>320.7</v>
       </c>
       <c r="N74">
-        <v>286.7752932756378</v>
+        <v>320.6602709597448</v>
       </c>
       <c r="O74">
         <v>0</v>
       </c>
       <c r="P74">
-        <v>350.5</v>
+        <v>320.7</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4139,7 +4139,7 @@
         <v>347.1</v>
       </c>
       <c r="E75">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F75">
         <v>46.01190002576926</v>
@@ -4148,31 +4148,31 @@
         <v>1.22</v>
       </c>
       <c r="H75">
-        <v>18.4</v>
+        <v>19</v>
       </c>
       <c r="I75">
-        <v>328.7</v>
+        <v>328.1</v>
       </c>
       <c r="J75">
-        <v>18.4</v>
+        <v>19</v>
       </c>
       <c r="K75">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L75">
-        <v>328.7</v>
+        <v>328.1</v>
       </c>
       <c r="M75">
-        <v>338.5</v>
+        <v>324.4</v>
       </c>
       <c r="N75">
-        <v>276.963881974037</v>
+        <v>324.3801354798724</v>
       </c>
       <c r="O75">
         <v>0</v>
       </c>
       <c r="P75">
-        <v>338.5</v>
+        <v>324.4</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4207,22 +4207,22 @@
         <v>20</v>
       </c>
       <c r="K76">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L76">
         <v>110.4</v>
       </c>
       <c r="M76">
-        <v>213.1</v>
+        <v>217.4</v>
       </c>
       <c r="N76">
-        <v>174.3137468883166</v>
+        <v>217.3900677399362</v>
       </c>
       <c r="O76">
         <v>0</v>
       </c>
       <c r="P76">
-        <v>213.1</v>
+        <v>217.4</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4239,7 +4239,7 @@
         <v>53.8</v>
       </c>
       <c r="E77">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="F77">
         <v>46.01190002576926</v>
@@ -4248,31 +4248,31 @@
         <v>1.22</v>
       </c>
       <c r="H77">
-        <v>48</v>
+        <v>47.2</v>
       </c>
       <c r="I77">
-        <v>5.799999999999997</v>
+        <v>6.599999999999994</v>
       </c>
       <c r="J77">
-        <v>48</v>
+        <v>47.2</v>
       </c>
       <c r="K77">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L77">
-        <v>5.799999999999997</v>
+        <v>6.599999999999994</v>
       </c>
       <c r="M77">
-        <v>99.09999999999999</v>
+        <v>112</v>
       </c>
       <c r="N77">
-        <v>81.05118609974247</v>
+        <v>111.9950338699681</v>
       </c>
       <c r="O77">
         <v>0</v>
       </c>
       <c r="P77">
-        <v>99.09999999999999</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4289,7 +4289,7 @@
         <v>40.6</v>
       </c>
       <c r="E78">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="F78">
         <v>46.01190002576926</v>
@@ -4298,31 +4298,31 @@
         <v>1.22</v>
       </c>
       <c r="H78">
-        <v>71.8</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="I78">
-        <v>-31.2</v>
+        <v>-28.3</v>
       </c>
       <c r="J78">
-        <v>68.76894449320915</v>
+        <v>66.6698879446383</v>
       </c>
       <c r="K78">
-        <v>121.8310555067909</v>
+        <v>143.9301120553617</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
       <c r="M78">
-        <v>44.6</v>
+        <v>56</v>
       </c>
       <c r="N78">
-        <v>36.47303374488411</v>
+        <v>55.99751693498404</v>
       </c>
       <c r="O78">
         <v>0</v>
       </c>
       <c r="P78">
-        <v>44.6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4339,7 +4339,7 @@
         <v>20.9</v>
       </c>
       <c r="E79">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="F79">
         <v>46.01190002576926</v>
@@ -4348,31 +4348,31 @@
         <v>1.22</v>
       </c>
       <c r="H79">
-        <v>99.2</v>
+        <v>95.2</v>
       </c>
       <c r="I79">
-        <v>-78.30000000000001</v>
+        <v>-74.30000000000001</v>
       </c>
       <c r="J79">
-        <v>70.4447069932605</v>
+        <v>71.86084048939813</v>
       </c>
       <c r="K79">
-        <v>72.28634851353036</v>
+        <v>92.96927156596357</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
       <c r="M79">
-        <v>20.1</v>
+        <v>28</v>
       </c>
       <c r="N79">
-        <v>16.41286518519784</v>
+        <v>27.99875846749202</v>
       </c>
       <c r="O79">
         <v>0</v>
       </c>
       <c r="P79">
-        <v>20.1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4389,7 +4389,7 @@
         <v>29.9</v>
       </c>
       <c r="E80">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="F80">
         <v>46.01190002576926</v>
@@ -4398,31 +4398,31 @@
         <v>1.22</v>
       </c>
       <c r="H80">
-        <v>117.6</v>
+        <v>113</v>
       </c>
       <c r="I80">
-        <v>-87.69999999999999</v>
+        <v>-83.09999999999999</v>
       </c>
       <c r="J80">
-        <v>61.90177407394827</v>
+        <v>65.84679613779593</v>
       </c>
       <c r="K80">
-        <v>40.28457443958209</v>
+        <v>57.02247542816763</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
       <c r="M80">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N80">
-        <v>7.385789333339029</v>
+        <v>13.99937923374601</v>
       </c>
       <c r="O80">
         <v>0</v>
       </c>
       <c r="P80">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4439,7 +4439,7 @@
         <v>17.5</v>
       </c>
       <c r="E81">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="F81">
         <v>46.01190002576926</v>
@@ -4448,31 +4448,31 @@
         <v>1.22</v>
       </c>
       <c r="H81">
-        <v>99</v>
+        <v>96.5</v>
       </c>
       <c r="I81">
-        <v>-81.5</v>
+        <v>-79</v>
       </c>
       <c r="J81">
-        <v>34.38693136233289</v>
+        <v>38.69412062502657</v>
       </c>
       <c r="K81">
-        <v>23.3976430772492</v>
+        <v>35.82835480314106</v>
       </c>
       <c r="L81">
         <v>0</v>
       </c>
       <c r="M81">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="N81">
-        <v>3.323605200002563</v>
+        <v>6.999689616873005</v>
       </c>
       <c r="O81">
         <v>0</v>
       </c>
       <c r="P81">
-        <v>4.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -4489,7 +4489,7 @@
         <v>30.1</v>
       </c>
       <c r="E82">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F82">
         <v>46.01190002576926</v>
@@ -4498,31 +4498,31 @@
         <v>1.22</v>
       </c>
       <c r="H82">
-        <v>73.8</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="I82">
-        <v>-43.7</v>
+        <v>-42.99999999999999</v>
       </c>
       <c r="J82">
-        <v>36.01336711177906</v>
+        <v>38.10715154668138</v>
       </c>
       <c r="K82">
-        <v>17.48427596547014</v>
+        <v>27.82120325645969</v>
       </c>
       <c r="L82">
         <v>0</v>
       </c>
       <c r="M82">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="N82">
-        <v>1.495622340001153</v>
+        <v>3.499844808436503</v>
       </c>
       <c r="O82">
         <v>0</v>
       </c>
       <c r="P82">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -4539,7 +4539,7 @@
         <v>44.4</v>
       </c>
       <c r="E83">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F83">
         <v>46.01190002576926</v>
@@ -4548,31 +4548,31 @@
         <v>1.22</v>
       </c>
       <c r="H83">
-        <v>57.6</v>
+        <v>58.2</v>
       </c>
       <c r="I83">
-        <v>-13.2</v>
+        <v>-13.8</v>
       </c>
       <c r="J83">
-        <v>45.87286007845863</v>
+        <v>46.56919234985775</v>
       </c>
       <c r="K83">
-        <v>16.01141588701151</v>
+        <v>25.65201090660193</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="N83">
-        <v>0.6730300530005188</v>
+        <v>1.749922404218251</v>
       </c>
       <c r="O83">
         <v>0</v>
       </c>
       <c r="P83">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -4589,7 +4589,7 @@
         <v>267.4</v>
       </c>
       <c r="E84">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F84">
         <v>46.01190002576926</v>
@@ -4598,31 +4598,31 @@
         <v>1.22</v>
       </c>
       <c r="H84">
-        <v>33.4</v>
+        <v>35.4</v>
       </c>
       <c r="I84">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J84">
-        <v>33.4</v>
+        <v>35.4</v>
       </c>
       <c r="K84">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L84">
-        <v>100.0114158870115</v>
+        <v>87.6520109066019</v>
       </c>
       <c r="M84">
-        <v>55.4</v>
+        <v>44.7</v>
       </c>
       <c r="N84">
-        <v>45.3080006730054</v>
+        <v>44.70096665541008</v>
       </c>
       <c r="O84">
         <v>0</v>
       </c>
       <c r="P84">
-        <v>55.4</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -4639,7 +4639,7 @@
         <v>100.7</v>
       </c>
       <c r="E85">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="F85">
         <v>46.01190002576926</v>
@@ -4648,31 +4648,31 @@
         <v>1.22</v>
       </c>
       <c r="H85">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I85">
-        <v>85.7</v>
+        <v>84.7</v>
       </c>
       <c r="J85">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K85">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L85">
-        <v>85.7</v>
+        <v>84.7</v>
       </c>
       <c r="M85">
-        <v>72.09999999999999</v>
+        <v>64.7</v>
       </c>
       <c r="N85">
-        <v>58.95360030285242</v>
+        <v>64.70048332770504</v>
       </c>
       <c r="O85">
         <v>0</v>
       </c>
       <c r="P85">
-        <v>72.09999999999999</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -4689,7 +4689,7 @@
         <v>114.6</v>
       </c>
       <c r="E86">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="F86">
         <v>46.63066394212446</v>
@@ -4698,31 +4698,31 @@
         <v>1.23</v>
       </c>
       <c r="H86">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="I86">
-        <v>103.8</v>
+        <v>103.3</v>
       </c>
       <c r="J86">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="K86">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L86">
-        <v>103.8</v>
+        <v>103.3</v>
       </c>
       <c r="M86">
-        <v>89.5</v>
+        <v>84</v>
       </c>
       <c r="N86">
-        <v>73.23912013628357</v>
+        <v>84.00024166385252</v>
       </c>
       <c r="O86">
         <v>0</v>
       </c>
       <c r="P86">
-        <v>89.5</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -4739,7 +4739,7 @@
         <v>165.9</v>
       </c>
       <c r="E87">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F87">
         <v>46.63066394212446</v>
@@ -4748,31 +4748,31 @@
         <v>1.23</v>
       </c>
       <c r="H87">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="I87">
-        <v>158.5</v>
+        <v>158.2</v>
       </c>
       <c r="J87">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="K87">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L87">
-        <v>158.5</v>
+        <v>158.2</v>
       </c>
       <c r="M87">
-        <v>127.5</v>
+        <v>121.1</v>
       </c>
       <c r="N87">
-        <v>104.2826040613276</v>
+        <v>121.1001208319263</v>
       </c>
       <c r="O87">
         <v>0</v>
       </c>
       <c r="P87">
-        <v>127.5</v>
+        <v>121.1</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -4807,22 +4807,22 @@
         <v>24.3</v>
       </c>
       <c r="K88">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L88">
         <v>114</v>
       </c>
       <c r="M88">
-        <v>120.1</v>
+        <v>117.6</v>
       </c>
       <c r="N88">
-        <v>98.22717182759742</v>
+        <v>117.5500604159631</v>
       </c>
       <c r="O88">
         <v>0</v>
       </c>
       <c r="P88">
-        <v>120.1</v>
+        <v>117.6</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -4839,7 +4839,7 @@
         <v>150.3</v>
       </c>
       <c r="E89">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="F89">
         <v>46.63066394212446</v>
@@ -4848,31 +4848,31 @@
         <v>1.23</v>
       </c>
       <c r="H89">
-        <v>42.1</v>
+        <v>41.3</v>
       </c>
       <c r="I89">
-        <v>108.2</v>
+        <v>109</v>
       </c>
       <c r="J89">
-        <v>42.1</v>
+        <v>41.3</v>
       </c>
       <c r="K89">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L89">
-        <v>108.2</v>
+        <v>109</v>
       </c>
       <c r="M89">
-        <v>113.5</v>
+        <v>113.3</v>
       </c>
       <c r="N89">
-        <v>92.89222732241883</v>
+        <v>113.2750302079816</v>
       </c>
       <c r="O89">
         <v>0</v>
       </c>
       <c r="P89">
-        <v>113.5</v>
+        <v>113.3</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -4889,7 +4889,7 @@
         <v>90.8</v>
       </c>
       <c r="E90">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="F90">
         <v>46.63066394212446</v>
@@ -4898,31 +4898,31 @@
         <v>1.23</v>
       </c>
       <c r="H90">
-        <v>76.7</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="I90">
-        <v>14.09999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="J90">
-        <v>76.7</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="K90">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L90">
-        <v>14.09999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="M90">
-        <v>58.8</v>
+        <v>65.2</v>
       </c>
       <c r="N90">
-        <v>48.14650229508847</v>
+        <v>65.2375151039908</v>
       </c>
       <c r="O90">
         <v>0</v>
       </c>
       <c r="P90">
-        <v>58.8</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -4939,7 +4939,7 @@
         <v>61.9</v>
       </c>
       <c r="E91">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="F91">
         <v>46.63066394212446</v>
@@ -4948,31 +4948,31 @@
         <v>1.23</v>
       </c>
       <c r="H91">
-        <v>103.2</v>
+        <v>99</v>
       </c>
       <c r="I91">
-        <v>-41.3</v>
+        <v>-37.1</v>
       </c>
       <c r="J91">
-        <v>98.00215379335154</v>
+        <v>95.23083615052857</v>
       </c>
       <c r="K91">
-        <v>113.8978462066485</v>
+        <v>136.6691638494714</v>
       </c>
       <c r="L91">
         <v>0</v>
       </c>
       <c r="M91">
-        <v>26.5</v>
+        <v>32.6</v>
       </c>
       <c r="N91">
-        <v>21.66592603278981</v>
+        <v>32.6187575519954</v>
       </c>
       <c r="O91">
         <v>0</v>
       </c>
       <c r="P91">
-        <v>26.5</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -4989,7 +4989,7 @@
         <v>11.4</v>
       </c>
       <c r="E92">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="F92">
         <v>46.63066394212446</v>
@@ -4998,31 +4998,31 @@
         <v>1.23</v>
       </c>
       <c r="H92">
-        <v>139.3</v>
+        <v>133.8</v>
       </c>
       <c r="I92">
-        <v>-127.9</v>
+        <v>-122.4</v>
       </c>
       <c r="J92">
-        <v>76.74585079176796</v>
+        <v>81.54514002557822</v>
       </c>
       <c r="K92">
-        <v>48.55199541488051</v>
+        <v>66.52402382389322</v>
       </c>
       <c r="L92">
         <v>0</v>
       </c>
       <c r="M92">
-        <v>11.9</v>
+        <v>16.3</v>
       </c>
       <c r="N92">
-        <v>9.749666714755413</v>
+        <v>16.3093787759977</v>
       </c>
       <c r="O92">
         <v>0</v>
       </c>
       <c r="P92">
-        <v>11.9</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5039,7 +5039,7 @@
         <v>81.5</v>
       </c>
       <c r="E93">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="F93">
         <v>46.63066394212446</v>
@@ -5048,31 +5048,31 @@
         <v>1.23</v>
       </c>
       <c r="H93">
-        <v>113.2</v>
+        <v>110.3</v>
       </c>
       <c r="I93">
-        <v>-31.7</v>
+        <v>-28.8</v>
       </c>
       <c r="J93">
-        <v>90.7489518308447</v>
+        <v>91.86702164840298</v>
       </c>
       <c r="K93">
-        <v>39.30304358403581</v>
+        <v>56.15700217549024</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
       <c r="M93">
-        <v>5.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="N93">
-        <v>4.387350021639936</v>
+        <v>8.15468938799885</v>
       </c>
       <c r="O93">
         <v>0</v>
       </c>
       <c r="P93">
-        <v>5.4</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5089,7 +5089,7 @@
         <v>84.7</v>
       </c>
       <c r="E94">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F94">
         <v>46.63066394212446</v>
@@ -5098,31 +5098,31 @@
         <v>1.23</v>
       </c>
       <c r="H94">
-        <v>71.8</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="I94">
-        <v>12.90000000000001</v>
+        <v>13.60000000000001</v>
       </c>
       <c r="J94">
-        <v>71.8</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="K94">
-        <v>52.20304358403581</v>
+        <v>69.75700217549024</v>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
       <c r="M94">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="N94">
-        <v>1.974307509737971</v>
+        <v>4.077344693999425</v>
       </c>
       <c r="O94">
         <v>0</v>
       </c>
       <c r="P94">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5139,7 +5139,7 @@
         <v>381.4</v>
       </c>
       <c r="E95">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F95">
         <v>46.63066394212446</v>
@@ -5148,31 +5148,31 @@
         <v>1.23</v>
       </c>
       <c r="H95">
-        <v>46.1</v>
+        <v>46.6</v>
       </c>
       <c r="I95">
-        <v>335.3</v>
+        <v>334.8</v>
       </c>
       <c r="J95">
-        <v>46.1</v>
+        <v>46.6</v>
       </c>
       <c r="K95">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L95">
-        <v>237.5030435840358</v>
+        <v>234.5570021754902</v>
       </c>
       <c r="M95">
-        <v>131.7</v>
+        <v>119.3</v>
       </c>
       <c r="N95">
-        <v>107.7648079921982</v>
+        <v>119.3171734347448</v>
       </c>
       <c r="O95">
         <v>0</v>
       </c>
       <c r="P95">
-        <v>131.7</v>
+        <v>119.3</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -5189,7 +5189,7 @@
         <v>66.59999999999999</v>
       </c>
       <c r="E96">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F96">
         <v>46.63066394212446</v>
@@ -5198,31 +5198,31 @@
         <v>1.23</v>
       </c>
       <c r="H96">
-        <v>25.8</v>
+        <v>27.3</v>
       </c>
       <c r="I96">
-        <v>40.8</v>
+        <v>39.3</v>
       </c>
       <c r="J96">
-        <v>25.8</v>
+        <v>27.3</v>
       </c>
       <c r="K96">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L96">
-        <v>40.8</v>
+        <v>39.3</v>
       </c>
       <c r="M96">
-        <v>81.7</v>
+        <v>79.3</v>
       </c>
       <c r="N96">
-        <v>66.85416359648916</v>
+        <v>79.30858671737241</v>
       </c>
       <c r="O96">
         <v>0</v>
       </c>
       <c r="P96">
-        <v>81.7</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -5239,7 +5239,7 @@
         <v>4.6</v>
       </c>
       <c r="E97">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="F97">
         <v>46.63066394212446</v>
@@ -5248,31 +5248,31 @@
         <v>1.23</v>
       </c>
       <c r="H97">
-        <v>16.2</v>
+        <v>17.2</v>
       </c>
       <c r="I97">
-        <v>-11.6</v>
+        <v>-12.6</v>
       </c>
       <c r="J97">
-        <v>15.76280873681447</v>
+        <v>16.74438438834591</v>
       </c>
       <c r="K97">
-        <v>138.8371912631855</v>
+        <v>157.8556156116541</v>
       </c>
       <c r="L97">
         <v>0</v>
       </c>
       <c r="M97">
-        <v>36.8</v>
+        <v>39.7</v>
       </c>
       <c r="N97">
-        <v>30.08437361842012</v>
+        <v>39.6542933586862</v>
       </c>
       <c r="O97">
         <v>0</v>
       </c>
       <c r="P97">
-        <v>36.8</v>
+        <v>39.7</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -5289,7 +5289,7 @@
         <v>175.4</v>
       </c>
       <c r="E98">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="F98">
         <v>45.07116792391581</v>
@@ -5298,31 +5298,31 @@
         <v>1.21</v>
       </c>
       <c r="H98">
-        <v>12</v>
+        <v>12.6</v>
       </c>
       <c r="I98">
-        <v>163.4</v>
+        <v>162.8</v>
       </c>
       <c r="J98">
-        <v>12</v>
+        <v>12.6</v>
       </c>
       <c r="K98">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L98">
-        <v>152.2371912631855</v>
+        <v>150.6556156116541</v>
       </c>
       <c r="M98">
-        <v>100.3</v>
+        <v>95.2</v>
       </c>
       <c r="N98">
-        <v>82.04470419672255</v>
+        <v>95.15495448517015</v>
       </c>
       <c r="O98">
         <v>0</v>
       </c>
       <c r="P98">
-        <v>100.3</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -5339,7 +5339,7 @@
         <v>424.2</v>
       </c>
       <c r="E99">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F99">
         <v>45.07116792391581</v>
@@ -5348,31 +5348,31 @@
         <v>1.21</v>
       </c>
       <c r="H99">
-        <v>18</v>
+        <v>18.7</v>
       </c>
       <c r="I99">
-        <v>406.2</v>
+        <v>405.5</v>
       </c>
       <c r="J99">
-        <v>18</v>
+        <v>18.7</v>
       </c>
       <c r="K99">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L99">
-        <v>406.2</v>
+        <v>405.5</v>
       </c>
       <c r="M99">
-        <v>268.5</v>
+        <v>250.3</v>
       </c>
       <c r="N99">
-        <v>219.7101168885251</v>
+        <v>250.3274772425851</v>
       </c>
       <c r="O99">
         <v>0</v>
       </c>
       <c r="P99">
-        <v>268.5</v>
+        <v>250.3</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -5407,22 +5407,22 @@
         <v>24.7</v>
       </c>
       <c r="K100">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L100">
         <v>134</v>
       </c>
       <c r="M100">
-        <v>194.5</v>
+        <v>192.2</v>
       </c>
       <c r="N100">
-        <v>159.1695525998363</v>
+        <v>192.1637386212925</v>
       </c>
       <c r="O100">
         <v>0</v>
       </c>
       <c r="P100">
-        <v>194.5</v>
+        <v>192.2</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -5439,7 +5439,7 @@
         <v>42.6</v>
       </c>
       <c r="E101">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="F101">
         <v>45.07116792391581</v>
@@ -5448,31 +5448,31 @@
         <v>1.21</v>
       </c>
       <c r="H101">
-        <v>52.3</v>
+        <v>51.3</v>
       </c>
       <c r="I101">
-        <v>-9.699999999999996</v>
+        <v>-8.699999999999996</v>
       </c>
       <c r="J101">
-        <v>51.99301931045736</v>
+        <v>51.08113185430782</v>
       </c>
       <c r="K101">
-        <v>140.6069806895426</v>
+        <v>161.5188681456922</v>
       </c>
       <c r="L101">
         <v>0</v>
       </c>
       <c r="M101">
-        <v>87.5</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="N101">
-        <v>71.62629866992633</v>
+        <v>96.08186931064627</v>
       </c>
       <c r="O101">
         <v>0</v>
       </c>
       <c r="P101">
-        <v>87.5</v>
+        <v>96.09999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -5489,7 +5489,7 @@
         <v>167.2</v>
       </c>
       <c r="E102">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="F102">
         <v>45.07116792391581</v>
@@ -5498,31 +5498,31 @@
         <v>1.21</v>
       </c>
       <c r="H102">
-        <v>69.5</v>
+        <v>66.7</v>
       </c>
       <c r="I102">
-        <v>97.69999999999999</v>
+        <v>100.5</v>
       </c>
       <c r="J102">
-        <v>69.5</v>
+        <v>66.7</v>
       </c>
       <c r="K102">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L102">
-        <v>88.30698068954263</v>
+        <v>92.01886814569217</v>
       </c>
       <c r="M102">
-        <v>88</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="N102">
-        <v>71.96997571176102</v>
+        <v>94.05036872816922</v>
       </c>
       <c r="O102">
         <v>0</v>
       </c>
       <c r="P102">
-        <v>88</v>
+        <v>94.09999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -5539,7 +5539,7 @@
         <v>64</v>
       </c>
       <c r="E103">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="F103">
         <v>45.07116792391581</v>
@@ -5548,31 +5548,31 @@
         <v>1.21</v>
       </c>
       <c r="H103">
-        <v>98.3</v>
+        <v>94.3</v>
       </c>
       <c r="I103">
-        <v>-34.3</v>
+        <v>-30.3</v>
       </c>
       <c r="J103">
-        <v>94.6609469190864</v>
+        <v>91.75326176560529</v>
       </c>
       <c r="K103">
-        <v>119.3390530809136</v>
+        <v>142.2467382343947</v>
       </c>
       <c r="L103">
         <v>0</v>
       </c>
       <c r="M103">
-        <v>39.6</v>
+        <v>47</v>
       </c>
       <c r="N103">
-        <v>32.38648907029246</v>
+        <v>47.02518436408461</v>
       </c>
       <c r="O103">
         <v>0</v>
       </c>
       <c r="P103">
-        <v>39.6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -5589,7 +5589,7 @@
         <v>21</v>
       </c>
       <c r="E104">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="F104">
         <v>45.07116792391581</v>
@@ -5598,31 +5598,31 @@
         <v>1.21</v>
       </c>
       <c r="H104">
-        <v>124.8</v>
+        <v>119.9</v>
       </c>
       <c r="I104">
-        <v>-103.8</v>
+        <v>-98.90000000000001</v>
       </c>
       <c r="J104">
-        <v>80.60103554132839</v>
+        <v>83.74344564271016</v>
       </c>
       <c r="K104">
-        <v>59.73801753958521</v>
+        <v>79.50329259168456</v>
       </c>
       <c r="L104">
         <v>0</v>
       </c>
       <c r="M104">
-        <v>17.8</v>
+        <v>23.5</v>
       </c>
       <c r="N104">
-        <v>14.5739200816316</v>
+        <v>23.5125921820423</v>
       </c>
       <c r="O104">
         <v>0</v>
       </c>
       <c r="P104">
-        <v>17.8</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -5639,7 +5639,7 @@
         <v>9.5</v>
       </c>
       <c r="E105">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="F105">
         <v>45.07116792391581</v>
@@ -5648,31 +5648,31 @@
         <v>1.21</v>
       </c>
       <c r="H105">
-        <v>110.4</v>
+        <v>107.6</v>
       </c>
       <c r="I105">
-        <v>-100.9</v>
+        <v>-98.09999999999999</v>
       </c>
       <c r="J105">
-        <v>38.7509688359733</v>
+        <v>44.35841337626186</v>
       </c>
       <c r="K105">
-        <v>30.48704870361192</v>
+        <v>44.6448792154227</v>
       </c>
       <c r="L105">
         <v>0</v>
       </c>
       <c r="M105">
-        <v>8</v>
+        <v>11.8</v>
       </c>
       <c r="N105">
-        <v>6.558264036734221</v>
+        <v>11.75629609102115</v>
       </c>
       <c r="O105">
         <v>0</v>
       </c>
       <c r="P105">
-        <v>8</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -5689,7 +5689,7 @@
         <v>10.2</v>
       </c>
       <c r="E106">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F106">
         <v>45.07116792391581</v>
@@ -5698,31 +5698,31 @@
         <v>1.21</v>
       </c>
       <c r="H106">
-        <v>80.59999999999999</v>
+        <v>79.8</v>
       </c>
       <c r="I106">
-        <v>-70.39999999999999</v>
+        <v>-69.59999999999999</v>
       </c>
       <c r="J106">
-        <v>21.61986689227849</v>
+        <v>25.19886025017969</v>
       </c>
       <c r="K106">
-        <v>19.06718181133343</v>
+        <v>29.64601896524301</v>
       </c>
       <c r="L106">
         <v>0</v>
       </c>
       <c r="M106">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="N106">
-        <v>2.951218816530399</v>
+        <v>5.878148045510576</v>
       </c>
       <c r="O106">
         <v>0</v>
       </c>
       <c r="P106">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -5739,7 +5739,7 @@
         <v>27.1</v>
       </c>
       <c r="E107">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F107">
         <v>45.07116792391581</v>
@@ -5748,31 +5748,31 @@
         <v>1.21</v>
       </c>
       <c r="H107">
-        <v>43.7</v>
+        <v>44.2</v>
       </c>
       <c r="I107">
-        <v>-16.6</v>
+        <v>-17.1</v>
       </c>
       <c r="J107">
-        <v>29.09753304078126</v>
+        <v>29.93696637977405</v>
       </c>
       <c r="K107">
-        <v>17.06964877055217</v>
+        <v>26.80905258546895</v>
       </c>
       <c r="L107">
         <v>0</v>
       </c>
       <c r="M107">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="N107">
-        <v>1.328048467438679</v>
+        <v>2.939074022755288</v>
       </c>
       <c r="O107">
         <v>0</v>
       </c>
       <c r="P107">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -5789,7 +5789,7 @@
         <v>239.6</v>
       </c>
       <c r="E108">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F108">
         <v>45.07116792391581</v>
@@ -5798,31 +5798,31 @@
         <v>1.21</v>
       </c>
       <c r="H108">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="I108">
-        <v>214.2</v>
+        <v>212.7</v>
       </c>
       <c r="J108">
-        <v>25.4</v>
+        <v>26.9</v>
       </c>
       <c r="K108">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L108">
-        <v>81.26964877055215</v>
+        <v>69.50905258546894</v>
       </c>
       <c r="M108">
-        <v>45.4</v>
+        <v>36.2</v>
       </c>
       <c r="N108">
-        <v>37.16896375709587</v>
+        <v>36.22406330411211</v>
       </c>
       <c r="O108">
         <v>0</v>
       </c>
       <c r="P108">
-        <v>45.4</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -5839,7 +5839,7 @@
         <v>40.3</v>
       </c>
       <c r="E109">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="F109">
         <v>45.07116792391581</v>
@@ -5848,31 +5848,31 @@
         <v>1.21</v>
       </c>
       <c r="H109">
-        <v>10.9</v>
+        <v>11.6</v>
       </c>
       <c r="I109">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="J109">
-        <v>10.9</v>
+        <v>11.6</v>
       </c>
       <c r="K109">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L109">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="M109">
-        <v>36.6</v>
+        <v>32.5</v>
       </c>
       <c r="N109">
-        <v>29.95603369069314</v>
+        <v>32.46203165205606</v>
       </c>
       <c r="O109">
         <v>0</v>
       </c>
       <c r="P109">
-        <v>36.6</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -5889,7 +5889,7 @@
         <v>80.59999999999999</v>
       </c>
       <c r="E110">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="F110">
         <v>45.67998775893799</v>
@@ -5907,22 +5907,22 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <v>229.4</v>
+        <v>249.4</v>
       </c>
       <c r="L110">
         <v>0</v>
       </c>
       <c r="M110">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="N110">
-        <v>13.48021516081191</v>
+        <v>16.23101582602803</v>
       </c>
       <c r="O110">
         <v>0</v>
       </c>
       <c r="P110">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -5939,7 +5939,7 @@
         <v>175.8</v>
       </c>
       <c r="E111">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F111">
         <v>45.67998775893799</v>
@@ -5948,31 +5948,31 @@
         <v>1.21</v>
       </c>
       <c r="H111">
-        <v>15.9</v>
+        <v>16.5</v>
       </c>
       <c r="I111">
-        <v>159.9</v>
+        <v>159.3</v>
       </c>
       <c r="J111">
-        <v>15.9</v>
+        <v>16.5</v>
       </c>
       <c r="K111">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L111">
-        <v>159.9</v>
+        <v>159.3</v>
       </c>
       <c r="M111">
-        <v>95.40000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="N111">
-        <v>78.02109682236537</v>
+        <v>87.76550791301402</v>
       </c>
       <c r="O111">
         <v>8.1</v>
       </c>
       <c r="P111">
-        <v>103.5</v>
+        <v>95.89999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6007,22 +6007,22 @@
         <v>34.9</v>
       </c>
       <c r="K112">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L112">
         <v>96.90000000000001</v>
       </c>
       <c r="M112">
-        <v>96.2</v>
+        <v>92.3</v>
       </c>
       <c r="N112">
-        <v>78.71449357006441</v>
+        <v>92.33275395650702</v>
       </c>
       <c r="O112">
         <v>40.3</v>
       </c>
       <c r="P112">
-        <v>136.5</v>
+        <v>132.6</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -6039,7 +6039,7 @@
         <v>66</v>
       </c>
       <c r="E113">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="F113">
         <v>45.67998775893799</v>
@@ -6048,31 +6048,31 @@
         <v>1.21</v>
       </c>
       <c r="H113">
-        <v>44.2</v>
+        <v>43.4</v>
       </c>
       <c r="I113">
-        <v>21.8</v>
+        <v>22.6</v>
       </c>
       <c r="J113">
-        <v>44.2</v>
+        <v>43.4</v>
       </c>
       <c r="K113">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L113">
-        <v>21.8</v>
+        <v>22.6</v>
       </c>
       <c r="M113">
-        <v>55.3</v>
+        <v>57.5</v>
       </c>
       <c r="N113">
-        <v>45.23152210652898</v>
+        <v>57.46637697825351</v>
       </c>
       <c r="O113">
         <v>20.2</v>
       </c>
       <c r="P113">
-        <v>75.5</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -6089,7 +6089,7 @@
         <v>71.90000000000001</v>
       </c>
       <c r="E114">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="F114">
         <v>45.67998775893799</v>
@@ -6098,31 +6098,31 @@
         <v>1.21</v>
       </c>
       <c r="H114">
-        <v>76.90000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="I114">
-        <v>-5</v>
+        <v>-1.899999999999991</v>
       </c>
       <c r="J114">
-        <v>76.81758492769912</v>
+        <v>73.78942179860384</v>
       </c>
       <c r="K114">
-        <v>145.0824150723009</v>
+        <v>168.1105782013962</v>
       </c>
       <c r="L114">
         <v>0</v>
       </c>
       <c r="M114">
-        <v>24.9</v>
+        <v>28.7</v>
       </c>
       <c r="N114">
-        <v>20.35418494793804</v>
+        <v>28.73318848912675</v>
       </c>
       <c r="O114">
         <v>10.1</v>
       </c>
       <c r="P114">
-        <v>35</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -6139,7 +6139,7 @@
         <v>52.3</v>
       </c>
       <c r="E115">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="F115">
         <v>45.67998775893799</v>
@@ -6148,31 +6148,31 @@
         <v>1.21</v>
       </c>
       <c r="H115">
-        <v>112.2</v>
+        <v>107.7</v>
       </c>
       <c r="I115">
-        <v>-59.90000000000001</v>
+        <v>-55.40000000000001</v>
       </c>
       <c r="J115">
-        <v>100.0659078716929</v>
+        <v>99.05321429636371</v>
       </c>
       <c r="K115">
-        <v>97.31650720060799</v>
+        <v>121.3573639050325</v>
       </c>
       <c r="L115">
         <v>0</v>
       </c>
       <c r="M115">
-        <v>11.2</v>
+        <v>14.4</v>
       </c>
       <c r="N115">
-        <v>9.159383226572116</v>
+        <v>14.36659424456338</v>
       </c>
       <c r="O115">
         <v>5</v>
       </c>
       <c r="P115">
-        <v>16.2</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -6189,7 +6189,7 @@
         <v>7.1</v>
       </c>
       <c r="E116">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="F116">
         <v>45.67998775893799</v>
@@ -6198,31 +6198,31 @@
         <v>1.21</v>
       </c>
       <c r="H116">
-        <v>119.1</v>
+        <v>114.4</v>
       </c>
       <c r="I116">
-        <v>-112</v>
+        <v>-107.3</v>
       </c>
       <c r="J116">
-        <v>58.29395829167706</v>
+        <v>63.89942211146074</v>
       </c>
       <c r="K116">
-        <v>46.12254890893093</v>
+        <v>64.55794179357173</v>
       </c>
       <c r="L116">
         <v>0</v>
       </c>
       <c r="M116">
-        <v>5</v>
+        <v>7.2</v>
       </c>
       <c r="N116">
-        <v>4.121722451957452</v>
+        <v>7.183297122281688</v>
       </c>
       <c r="O116">
         <v>2.5</v>
       </c>
       <c r="P116">
-        <v>7.5</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -6239,7 +6239,7 @@
         <v>20.3</v>
       </c>
       <c r="E117">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="F117">
         <v>45.67998775893799</v>
@@ -6248,31 +6248,31 @@
         <v>1.21</v>
       </c>
       <c r="H117">
-        <v>121.6</v>
+        <v>118.5</v>
       </c>
       <c r="I117">
-        <v>-101.3</v>
+        <v>-98.2</v>
       </c>
       <c r="J117">
-        <v>42.94678355663459</v>
+        <v>48.62690635428372</v>
       </c>
       <c r="K117">
-        <v>23.47576535229635</v>
+        <v>36.23103543928801</v>
       </c>
       <c r="L117">
         <v>0</v>
       </c>
       <c r="M117">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N117">
-        <v>1.854775103380853</v>
+        <v>3.591648561140844</v>
       </c>
       <c r="O117">
         <v>1.3</v>
       </c>
       <c r="P117">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -6289,7 +6289,7 @@
         <v>82</v>
       </c>
       <c r="E118">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F118">
         <v>45.67998775893799</v>
@@ -6298,31 +6298,31 @@
         <v>1.21</v>
       </c>
       <c r="H118">
-        <v>66.2</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="I118">
-        <v>15.8</v>
+        <v>16.40000000000001</v>
       </c>
       <c r="J118">
-        <v>66.2</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="K118">
-        <v>39.27576535229635</v>
+        <v>52.63103543928801</v>
       </c>
       <c r="L118">
         <v>0</v>
       </c>
       <c r="M118">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="N118">
-        <v>0.8346487965213839</v>
+        <v>1.795824280570422</v>
       </c>
       <c r="O118">
         <v>0.6</v>
       </c>
       <c r="P118">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -6339,7 +6339,7 @@
         <v>20.7</v>
       </c>
       <c r="E119">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F119">
         <v>45.67998775893799</v>
@@ -6348,31 +6348,31 @@
         <v>1.21</v>
       </c>
       <c r="H119">
-        <v>46</v>
+        <v>46.4</v>
       </c>
       <c r="I119">
-        <v>-25.3</v>
+        <v>-25.7</v>
       </c>
       <c r="J119">
-        <v>26.79597373756007</v>
+        <v>28.08434615321381</v>
       </c>
       <c r="K119">
-        <v>33.17979161473627</v>
+        <v>45.2466892860742</v>
       </c>
       <c r="L119">
         <v>0</v>
       </c>
       <c r="M119">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="N119">
-        <v>0.3755919584346227</v>
+        <v>0.897912140285211</v>
       </c>
       <c r="O119">
         <v>0.3</v>
       </c>
       <c r="P119">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -6389,7 +6389,7 @@
         <v>221</v>
       </c>
       <c r="E120">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F120">
         <v>45.67998775893799</v>
@@ -6398,31 +6398,31 @@
         <v>1.21</v>
       </c>
       <c r="H120">
-        <v>20.3</v>
+        <v>21.6</v>
       </c>
       <c r="I120">
-        <v>200.7</v>
+        <v>199.4</v>
       </c>
       <c r="J120">
-        <v>20.3</v>
+        <v>21.6</v>
       </c>
       <c r="K120">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L120">
-        <v>83.87979161473626</v>
+        <v>74.64668928607421</v>
       </c>
       <c r="M120">
-        <v>46.3</v>
+        <v>37.8</v>
       </c>
       <c r="N120">
-        <v>37.9149226079269</v>
+        <v>37.77230071317971</v>
       </c>
       <c r="O120">
         <v>0.2</v>
       </c>
       <c r="P120">
-        <v>46.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -6439,7 +6439,7 @@
         <v>506.3</v>
       </c>
       <c r="E121">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="F121">
         <v>45.67998775893799</v>
@@ -6448,31 +6448,31 @@
         <v>1.21</v>
       </c>
       <c r="H121">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="I121">
-        <v>497.9</v>
+        <v>497.4</v>
       </c>
       <c r="J121">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="K121">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L121">
-        <v>497.9</v>
+        <v>497.4</v>
       </c>
       <c r="M121">
-        <v>294.7</v>
+        <v>267.6</v>
       </c>
       <c r="N121">
-        <v>241.1167151735671</v>
+        <v>267.5861503565899</v>
       </c>
       <c r="O121">
         <v>0</v>
       </c>
       <c r="P121">
-        <v>294.7</v>
+        <v>267.6</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -6489,7 +6489,7 @@
         <v>91.40000000000001</v>
       </c>
       <c r="E122">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="F122">
         <v>47.05299171498172</v>
@@ -6498,31 +6498,31 @@
         <v>1.24</v>
       </c>
       <c r="H122">
-        <v>15.2</v>
+        <v>15.9</v>
       </c>
       <c r="I122">
-        <v>76.2</v>
+        <v>75.5</v>
       </c>
       <c r="J122">
-        <v>15.2</v>
+        <v>15.9</v>
       </c>
       <c r="K122">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L122">
-        <v>76.2</v>
+        <v>75.5</v>
       </c>
       <c r="M122">
-        <v>174.5</v>
+        <v>171.5</v>
       </c>
       <c r="N122">
-        <v>142.7925218281052</v>
+        <v>171.5430751782949</v>
       </c>
       <c r="O122">
         <v>0</v>
       </c>
       <c r="P122">
-        <v>174.5</v>
+        <v>171.5</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -6539,7 +6539,7 @@
         <v>137.9</v>
       </c>
       <c r="E123">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F123">
         <v>47.05299171498172</v>
@@ -6548,31 +6548,31 @@
         <v>1.24</v>
       </c>
       <c r="H123">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I123">
-        <v>137.1</v>
+        <v>137</v>
       </c>
       <c r="J123">
         <v>0</v>
       </c>
       <c r="K123">
-        <v>287.1</v>
+        <v>307</v>
       </c>
       <c r="L123">
         <v>0</v>
       </c>
       <c r="M123">
-        <v>78.5</v>
+        <v>85.8</v>
       </c>
       <c r="N123">
-        <v>64.25663482264733</v>
+        <v>85.77153758914747</v>
       </c>
       <c r="O123">
         <v>0</v>
       </c>
       <c r="P123">
-        <v>78.5</v>
+        <v>85.8</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -6607,22 +6607,22 @@
         <v>15.6</v>
       </c>
       <c r="K124">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L124">
         <v>263.7</v>
       </c>
       <c r="M124">
-        <v>180.4</v>
+        <v>174.7</v>
       </c>
       <c r="N124">
-        <v>147.5804856701913</v>
+        <v>174.7357687945737</v>
       </c>
       <c r="O124">
         <v>13.8</v>
       </c>
       <c r="P124">
-        <v>194.2</v>
+        <v>188.5</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -6639,7 +6639,7 @@
         <v>108.9</v>
       </c>
       <c r="E125">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="F125">
         <v>47.05299171498172</v>
@@ -6648,31 +6648,31 @@
         <v>1.24</v>
       </c>
       <c r="H125">
-        <v>56.7</v>
+        <v>55.7</v>
       </c>
       <c r="I125">
-        <v>52.2</v>
+        <v>53.2</v>
       </c>
       <c r="J125">
-        <v>56.7</v>
+        <v>55.7</v>
       </c>
       <c r="K125">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L125">
-        <v>52.2</v>
+        <v>53.2</v>
       </c>
       <c r="M125">
-        <v>109.9</v>
+        <v>114</v>
       </c>
       <c r="N125">
-        <v>89.90121855158606</v>
+        <v>113.9678843972869</v>
       </c>
       <c r="O125">
         <v>69</v>
       </c>
       <c r="P125">
-        <v>178.9</v>
+        <v>183</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -6689,7 +6689,7 @@
         <v>109.4</v>
       </c>
       <c r="E126">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="F126">
         <v>47.05299171498172</v>
@@ -6698,31 +6698,31 @@
         <v>1.24</v>
       </c>
       <c r="H126">
-        <v>79.40000000000001</v>
+        <v>76.2</v>
       </c>
       <c r="I126">
-        <v>30</v>
+        <v>33.2</v>
       </c>
       <c r="J126">
-        <v>79.40000000000001</v>
+        <v>76.2</v>
       </c>
       <c r="K126">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L126">
-        <v>30</v>
+        <v>33.2</v>
       </c>
       <c r="M126">
-        <v>65.90000000000001</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="N126">
-        <v>53.95554834821372</v>
+        <v>73.58394219864343</v>
       </c>
       <c r="O126">
         <v>34.5</v>
       </c>
       <c r="P126">
-        <v>100.4</v>
+        <v>108.1</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -6739,7 +6739,7 @@
         <v>16.3</v>
       </c>
       <c r="E127">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="F127">
         <v>47.05299171498172</v>
@@ -6748,31 +6748,31 @@
         <v>1.24</v>
       </c>
       <c r="H127">
-        <v>100.5</v>
+        <v>96.5</v>
       </c>
       <c r="I127">
-        <v>-84.2</v>
+        <v>-80.2</v>
       </c>
       <c r="J127">
-        <v>80.73280610807717</v>
+        <v>80.23694972792454</v>
       </c>
       <c r="K127">
-        <v>85.56719389192283</v>
+        <v>106.0630502720755</v>
       </c>
       <c r="L127">
         <v>0</v>
       </c>
       <c r="M127">
-        <v>29.7</v>
+        <v>36.8</v>
       </c>
       <c r="N127">
-        <v>24.27999675669617</v>
+        <v>36.79197109932171</v>
       </c>
       <c r="O127">
         <v>17.2</v>
       </c>
       <c r="P127">
-        <v>46.9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -6789,7 +6789,7 @@
         <v>81</v>
       </c>
       <c r="E128">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="F128">
         <v>47.05299171498172</v>
@@ -6798,31 +6798,31 @@
         <v>1.24</v>
       </c>
       <c r="H128">
-        <v>123.8</v>
+        <v>118.9</v>
       </c>
       <c r="I128">
-        <v>-42.8</v>
+        <v>-37.90000000000001</v>
       </c>
       <c r="J128">
-        <v>102.2408900584449</v>
+        <v>102.1954367221782</v>
       </c>
       <c r="K128">
-        <v>64.32630383347789</v>
+        <v>84.86761354989723</v>
       </c>
       <c r="L128">
         <v>0</v>
       </c>
       <c r="M128">
-        <v>13.4</v>
+        <v>18.4</v>
       </c>
       <c r="N128">
-        <v>10.92599854051328</v>
+        <v>18.39598554966086</v>
       </c>
       <c r="O128">
         <v>8.6</v>
       </c>
       <c r="P128">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -6839,7 +6839,7 @@
         <v>44.2</v>
       </c>
       <c r="E129">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="F129">
         <v>47.05299171498172</v>
@@ -6848,31 +6848,31 @@
         <v>1.24</v>
       </c>
       <c r="H129">
-        <v>115</v>
+        <v>112.1</v>
       </c>
       <c r="I129">
-        <v>-70.8</v>
+        <v>-67.89999999999999</v>
       </c>
       <c r="J129">
-        <v>68.4025458443314</v>
+        <v>72.14567728242838</v>
       </c>
       <c r="K129">
-        <v>40.1237579891465</v>
+        <v>56.92193626746885</v>
       </c>
       <c r="L129">
         <v>0</v>
       </c>
       <c r="M129">
-        <v>6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="N129">
-        <v>4.916699343230974</v>
+        <v>9.197992774830428</v>
       </c>
       <c r="O129">
         <v>4.3</v>
       </c>
       <c r="P129">
-        <v>10.3</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -6889,7 +6889,7 @@
         <v>36.8</v>
       </c>
       <c r="E130">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F130">
         <v>47.05299171498172</v>
@@ -6898,31 +6898,31 @@
         <v>1.24</v>
       </c>
       <c r="H130">
-        <v>81.8</v>
+        <v>81</v>
       </c>
       <c r="I130">
-        <v>-45</v>
+        <v>-44.2</v>
       </c>
       <c r="J130">
-        <v>47.19934698856312</v>
+        <v>49.83218704142746</v>
       </c>
       <c r="K130">
-        <v>29.72441100058338</v>
+        <v>43.88974922604139</v>
       </c>
       <c r="L130">
         <v>0</v>
       </c>
       <c r="M130">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="N130">
-        <v>2.212514704453938</v>
+        <v>4.598996387415214</v>
       </c>
       <c r="O130">
         <v>2.2</v>
       </c>
       <c r="P130">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -6939,7 +6939,7 @@
         <v>225.8</v>
       </c>
       <c r="E131">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F131">
         <v>47.05299171498172</v>
@@ -6948,31 +6948,31 @@
         <v>1.24</v>
       </c>
       <c r="H131">
-        <v>53.6</v>
+        <v>54.2</v>
       </c>
       <c r="I131">
-        <v>172.2</v>
+        <v>171.6</v>
       </c>
       <c r="J131">
-        <v>53.6</v>
+        <v>54.2</v>
       </c>
       <c r="K131">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L131">
-        <v>51.92441100058339</v>
+        <v>45.48974922604141</v>
       </c>
       <c r="M131">
-        <v>29.8</v>
+        <v>25</v>
       </c>
       <c r="N131">
-        <v>24.3616165672668</v>
+        <v>25.04437280672831</v>
       </c>
       <c r="O131">
         <v>1.1</v>
       </c>
       <c r="P131">
-        <v>30.9</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -6989,7 +6989,7 @@
         <v>201.8</v>
       </c>
       <c r="E132">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F132">
         <v>47.05299171498172</v>
@@ -6998,31 +6998,31 @@
         <v>1.24</v>
       </c>
       <c r="H132">
-        <v>25.6</v>
+        <v>27.2</v>
       </c>
       <c r="I132">
-        <v>176.2</v>
+        <v>174.6</v>
       </c>
       <c r="J132">
-        <v>25.6</v>
+        <v>27.2</v>
       </c>
       <c r="K132">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L132">
-        <v>176.2</v>
+        <v>174.6</v>
       </c>
       <c r="M132">
-        <v>110.3</v>
+        <v>99.8</v>
       </c>
       <c r="N132">
-        <v>90.25272745527006</v>
+        <v>99.82218640336417</v>
       </c>
       <c r="O132">
         <v>0.5</v>
       </c>
       <c r="P132">
-        <v>110.8</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -7039,7 +7039,7 @@
         <v>67.09999999999999</v>
       </c>
       <c r="E133">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="F133">
         <v>47.05299171498172</v>
@@ -7048,31 +7048,31 @@
         <v>1.24</v>
       </c>
       <c r="H133">
-        <v>9.9</v>
+        <v>10.6</v>
       </c>
       <c r="I133">
-        <v>57.2</v>
+        <v>56.49999999999999</v>
       </c>
       <c r="J133">
-        <v>9.9</v>
+        <v>10.6</v>
       </c>
       <c r="K133">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L133">
-        <v>57.2</v>
+        <v>56.49999999999999</v>
       </c>
       <c r="M133">
-        <v>81.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="N133">
-        <v>66.35372735487152</v>
+        <v>78.16109320168208</v>
       </c>
       <c r="O133">
         <v>0.3</v>
       </c>
       <c r="P133">
-        <v>81.39999999999999</v>
+        <v>78.5</v>
       </c>
     </row>
   </sheetData>
